--- a/Modulo/UTI.xlsx
+++ b/Modulo/UTI.xlsx
@@ -43658,31 +43658,31 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-5</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>5015568</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>BULBO PROA</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0180</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>1er Valorización Confección Bulbo</t>
+          <t>2da Valorización Confección Módulo</t>
         </is>
       </c>
       <c r="I461" t="n">
-        <v>3097.96</v>
+        <v>53395.05</v>
       </c>
       <c r="J461" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>30019622</v>
+        <v>30019536</v>
       </c>
       <c r="N461" s="3" t="n">
         <v>45741</v>
@@ -43709,11 +43709,9 @@
       <c r="P461" s="3" t="n">
         <v>46008</v>
       </c>
-      <c r="Q461" t="n">
-        <v>5010248827</v>
-      </c>
+      <c r="Q461" t="inlineStr"/>
       <c r="R461" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S461" t="inlineStr"/>
       <c r="T461" s="3" t="n">
@@ -43752,31 +43750,31 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-5</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015568</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>BULBO PROA</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>0180</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>2da Valorización Confección Módulo</t>
+          <t>1er Valorización Confección Bulbo</t>
         </is>
       </c>
       <c r="I462" t="n">
-        <v>53395.05</v>
+        <v>3097.96</v>
       </c>
       <c r="J462" t="inlineStr">
         <is>
@@ -43792,7 +43790,7 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>30019536</v>
+        <v>30019622</v>
       </c>
       <c r="N462" s="3" t="n">
         <v>45741</v>
@@ -43803,11 +43801,15 @@
       <c r="P462" s="3" t="n">
         <v>46008</v>
       </c>
-      <c r="Q462" t="inlineStr"/>
+      <c r="Q462" t="n">
+        <v>5010248827</v>
+      </c>
       <c r="R462" t="n">
-        <v>0</v>
-      </c>
-      <c r="S462" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="S462" t="n">
+        <v>1002853758</v>
+      </c>
       <c r="T462" s="3" t="n">
         <v>46008</v>
       </c>
@@ -43895,9 +43897,11 @@
       <c r="P463" s="3" t="n">
         <v>46006</v>
       </c>
-      <c r="Q463" t="inlineStr"/>
+      <c r="Q463" t="n">
+        <v>5010249441</v>
+      </c>
       <c r="R463" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S463" t="inlineStr"/>
       <c r="T463" s="3" t="n">
@@ -44102,7 +44106,9 @@
         <v>45994</v>
       </c>
       <c r="W465" t="inlineStr"/>
-      <c r="X465" t="inlineStr"/>
+      <c r="X465" t="n">
+        <v>5105807486</v>
+      </c>
       <c r="Y465" t="inlineStr"/>
       <c r="Z465" t="inlineStr"/>
       <c r="AA465" t="inlineStr"/>
@@ -49612,17 +49618,17 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>5015490</t>
+          <t>5015496</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>ARRIOSTRAMIENTO Y POSICION DE SISEÑO</t>
+          <t>ADITAMENTOS SM</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
@@ -49632,11 +49638,11 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Arriostramient de barco por Modificación</t>
+          <t>Confección piso SM</t>
         </is>
       </c>
       <c r="I521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J521" t="inlineStr">
         <is>
@@ -49645,7 +49651,9 @@
       </c>
       <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr"/>
-      <c r="M521" t="inlineStr"/>
+      <c r="M521" t="n">
+        <v>30018249</v>
+      </c>
       <c r="N521" s="3" t="n">
         <v>45741</v>
       </c>
@@ -49659,23 +49667,15 @@
       </c>
       <c r="S521" t="inlineStr"/>
       <c r="T521" s="3" t="n">
-        <v>45825</v>
-      </c>
-      <c r="U521" s="3" t="n">
-        <v>45989</v>
-      </c>
+        <v>45826</v>
+      </c>
+      <c r="U521" t="inlineStr"/>
       <c r="V521" t="inlineStr"/>
       <c r="W521" t="inlineStr"/>
       <c r="X521" t="inlineStr"/>
-      <c r="Y521" t="n">
-        <v>9867.24</v>
-      </c>
-      <c r="Z521" t="n">
-        <v>9128.120000000001</v>
-      </c>
-      <c r="AA521" t="n">
-        <v>2034.04176</v>
-      </c>
+      <c r="Y521" t="inlineStr"/>
+      <c r="Z521" t="inlineStr"/>
+      <c r="AA521" t="inlineStr"/>
       <c r="AB521" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -49698,31 +49698,31 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-5</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>5015568</t>
+          <t>5015496</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>BULBO PROA</t>
+          <t>ADITAMENTOS SM</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Confecc bulbo proa</t>
+          <t>Confección toma de mar</t>
         </is>
       </c>
       <c r="I522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J522" t="inlineStr">
         <is>
@@ -49731,7 +49731,9 @@
       </c>
       <c r="K522" t="inlineStr"/>
       <c r="L522" t="inlineStr"/>
-      <c r="M522" t="inlineStr"/>
+      <c r="M522" t="n">
+        <v>30018249</v>
+      </c>
       <c r="N522" s="3" t="n">
         <v>45741</v>
       </c>
@@ -49745,23 +49747,15 @@
       </c>
       <c r="S522" t="inlineStr"/>
       <c r="T522" s="3" t="n">
-        <v>45828</v>
-      </c>
-      <c r="U522" s="3" t="n">
-        <v>45993</v>
-      </c>
+        <v>45826</v>
+      </c>
+      <c r="U522" t="inlineStr"/>
       <c r="V522" t="inlineStr"/>
       <c r="W522" t="inlineStr"/>
       <c r="X522" t="inlineStr"/>
-      <c r="Y522" t="n">
-        <v>26593.403</v>
-      </c>
-      <c r="Z522" t="n">
-        <v>24094.81</v>
-      </c>
-      <c r="AA522" t="n">
-        <v>4534.4583</v>
-      </c>
+      <c r="Y522" t="inlineStr"/>
+      <c r="Z522" t="inlineStr"/>
+      <c r="AA522" t="inlineStr"/>
       <c r="AB522" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -49784,31 +49778,31 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-5</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>5015568</t>
+          <t>5015496</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>BULBO PROA</t>
+          <t>ADITAMENTOS SM</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Complementario para confección</t>
+          <t>Confección bases de equipos de SM</t>
         </is>
       </c>
       <c r="I523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J523" t="inlineStr">
         <is>
@@ -49817,12 +49811,14 @@
       </c>
       <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr"/>
-      <c r="M523" t="inlineStr"/>
+      <c r="M523" t="n">
+        <v>30018249</v>
+      </c>
       <c r="N523" s="3" t="n">
-        <v>45993</v>
+        <v>45741</v>
       </c>
       <c r="O523" s="3" t="n">
-        <v>45993</v>
+        <v>45741</v>
       </c>
       <c r="P523" t="inlineStr"/>
       <c r="Q523" t="inlineStr"/>
@@ -49831,23 +49827,15 @@
       </c>
       <c r="S523" t="inlineStr"/>
       <c r="T523" s="3" t="n">
-        <v>45993</v>
-      </c>
-      <c r="U523" s="3" t="n">
-        <v>45993</v>
-      </c>
+        <v>45826</v>
+      </c>
+      <c r="U523" t="inlineStr"/>
       <c r="V523" t="inlineStr"/>
       <c r="W523" t="inlineStr"/>
       <c r="X523" t="inlineStr"/>
-      <c r="Y523" t="n">
-        <v>312.485</v>
-      </c>
-      <c r="Z523" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA523" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y523" t="inlineStr"/>
+      <c r="Z523" t="inlineStr"/>
+      <c r="AA523" t="inlineStr"/>
       <c r="AB523" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -49870,17 +49858,17 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-4</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015565</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>ALBAÑILERIA</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
@@ -49890,11 +49878,11 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Confección Módulo 8 mt de eslora</t>
+          <t>Lastrado de bodegas</t>
         </is>
       </c>
       <c r="I524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J524" t="inlineStr">
         <is>
@@ -49903,7 +49891,9 @@
       </c>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr"/>
-      <c r="M524" t="inlineStr"/>
+      <c r="M524" t="n">
+        <v>30018340</v>
+      </c>
       <c r="N524" s="3" t="n">
         <v>45741</v>
       </c>
@@ -49917,23 +49907,15 @@
       </c>
       <c r="S524" t="inlineStr"/>
       <c r="T524" s="3" t="n">
-        <v>45825</v>
-      </c>
-      <c r="U524" s="3" t="n">
-        <v>45978</v>
-      </c>
+        <v>45828</v>
+      </c>
+      <c r="U524" t="inlineStr"/>
       <c r="V524" t="inlineStr"/>
       <c r="W524" t="inlineStr"/>
       <c r="X524" t="inlineStr"/>
-      <c r="Y524" t="n">
-        <v>141581.868</v>
-      </c>
-      <c r="Z524" t="n">
-        <v>127374.71</v>
-      </c>
-      <c r="AA524" t="n">
-        <v>27350.11713</v>
-      </c>
+      <c r="Y524" t="inlineStr"/>
+      <c r="Z524" t="inlineStr"/>
+      <c r="AA524" t="inlineStr"/>
       <c r="AB524" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -49956,31 +49938,31 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015566</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>ARBOLADURA</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Ampliación de manga Popa Br/Er</t>
+          <t>Confección de bípodes</t>
         </is>
       </c>
       <c r="I525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J525" t="inlineStr">
         <is>
@@ -49989,7 +49971,9 @@
       </c>
       <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr"/>
-      <c r="M525" t="inlineStr"/>
+      <c r="M525" t="n">
+        <v>30018341</v>
+      </c>
       <c r="N525" s="3" t="n">
         <v>45741</v>
       </c>
@@ -50003,11 +49987,9 @@
       </c>
       <c r="S525" t="inlineStr"/>
       <c r="T525" s="3" t="n">
-        <v>45825</v>
-      </c>
-      <c r="U525" s="3" t="n">
-        <v>45978</v>
-      </c>
+        <v>45828</v>
+      </c>
+      <c r="U525" t="inlineStr"/>
       <c r="V525" t="inlineStr"/>
       <c r="W525" t="inlineStr"/>
       <c r="X525" t="inlineStr"/>
@@ -50036,27 +50018,27 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5014996</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Inst de mamp nuevos</t>
+          <t>VARADA/DESVARADA</t>
         </is>
       </c>
       <c r="I526" t="n">
@@ -50083,10 +50065,10 @@
       </c>
       <c r="S526" t="inlineStr"/>
       <c r="T526" s="3" t="n">
-        <v>45825</v>
+        <v>45741</v>
       </c>
       <c r="U526" s="3" t="n">
-        <v>45978</v>
+        <v>45763</v>
       </c>
       <c r="V526" t="inlineStr"/>
       <c r="W526" t="inlineStr"/>
@@ -50116,27 +50098,27 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5014996</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Modificación de base motor</t>
+          <t>ESTADIA DE LA EMBARCACION</t>
         </is>
       </c>
       <c r="I527" t="n">
@@ -50154,7 +50136,7 @@
         <v>45741</v>
       </c>
       <c r="O527" s="3" t="n">
-        <v>45741</v>
+        <v>45835</v>
       </c>
       <c r="P527" t="inlineStr"/>
       <c r="Q527" t="inlineStr"/>
@@ -50163,10 +50145,10 @@
       </c>
       <c r="S527" t="inlineStr"/>
       <c r="T527" s="3" t="n">
-        <v>45826</v>
+        <v>45741</v>
       </c>
       <c r="U527" s="3" t="n">
-        <v>45978</v>
+        <v>45763</v>
       </c>
       <c r="V527" t="inlineStr"/>
       <c r="W527" t="inlineStr"/>
@@ -50196,27 +50178,27 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Inst tqs nuevos en SM</t>
+          <t>SEGURIDAD INDUSTRIAL</t>
         </is>
       </c>
       <c r="I528" t="n">
@@ -50243,26 +50225,20 @@
       </c>
       <c r="S528" t="inlineStr"/>
       <c r="T528" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U528" s="3" t="n">
-        <v>45978</v>
+        <v>45881</v>
       </c>
       <c r="V528" t="inlineStr"/>
       <c r="W528" t="inlineStr"/>
       <c r="X528" t="inlineStr"/>
-      <c r="Y528" t="n">
-        <v>12997.215</v>
-      </c>
-      <c r="Z528" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA528" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y528" t="inlineStr"/>
+      <c r="Z528" t="inlineStr"/>
+      <c r="AA528" t="inlineStr"/>
       <c r="AB528" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -50282,27 +50258,27 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>0060</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Modific enfriador de quilla</t>
+          <t>LIMPIEZA DE PATIO</t>
         </is>
       </c>
       <c r="I529" t="n">
@@ -50329,10 +50305,10 @@
       </c>
       <c r="S529" t="inlineStr"/>
       <c r="T529" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U529" s="3" t="n">
-        <v>45978</v>
+        <v>45881</v>
       </c>
       <c r="V529" t="inlineStr"/>
       <c r="W529" t="inlineStr"/>
@@ -50342,7 +50318,7 @@
       <c r="AA529" t="inlineStr"/>
       <c r="AB529" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -50362,27 +50338,27 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Confección túnel de propulsión</t>
+          <t>DISPOSICION DE RESIDUOS LIQUIDOS</t>
         </is>
       </c>
       <c r="I530" t="n">
@@ -50409,26 +50385,20 @@
       </c>
       <c r="S530" t="inlineStr"/>
       <c r="T530" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U530" s="3" t="n">
-        <v>45978</v>
+        <v>45881</v>
       </c>
       <c r="V530" t="inlineStr"/>
       <c r="W530" t="inlineStr"/>
       <c r="X530" t="inlineStr"/>
-      <c r="Y530" t="n">
-        <v>6410.227</v>
-      </c>
-      <c r="Z530" t="n">
-        <v>5533.86</v>
-      </c>
-      <c r="AA530" t="n">
-        <v>1386.023</v>
-      </c>
+      <c r="Y530" t="inlineStr"/>
+      <c r="Z530" t="inlineStr"/>
+      <c r="AA530" t="inlineStr"/>
       <c r="AB530" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -50448,27 +50418,27 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>0080</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Ampliación de caseta</t>
+          <t>DISPOSICION DE RESIDUOS SOLIDOS</t>
         </is>
       </c>
       <c r="I531" t="n">
@@ -50495,10 +50465,10 @@
       </c>
       <c r="S531" t="inlineStr"/>
       <c r="T531" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U531" s="3" t="n">
-        <v>45978</v>
+        <v>45881</v>
       </c>
       <c r="V531" t="inlineStr"/>
       <c r="W531" t="inlineStr"/>
@@ -50508,7 +50478,7 @@
       <c r="AA531" t="inlineStr"/>
       <c r="AB531" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -50528,27 +50498,27 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>0090</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Cbt alzada en popa</t>
+          <t>SERVICIO DE GRUA</t>
         </is>
       </c>
       <c r="I532" t="n">
@@ -50575,10 +50545,10 @@
       </c>
       <c r="S532" t="inlineStr"/>
       <c r="T532" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U532" s="3" t="n">
-        <v>45978</v>
+        <v>45881</v>
       </c>
       <c r="V532" t="inlineStr"/>
       <c r="W532" t="inlineStr"/>
@@ -50588,7 +50558,7 @@
       <c r="AA532" t="inlineStr"/>
       <c r="AB532" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -50608,27 +50578,27 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>0100</t>
+          <t>0060</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Modificación en popa</t>
+          <t>grua libre</t>
         </is>
       </c>
       <c r="I533" t="n">
@@ -50639,9 +50609,17 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
-      <c r="M533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>2053203078</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>TRANSGRUAS JHONDAVIS S.A.C.</t>
+        </is>
+      </c>
+      <c r="M533" t="n">
+        <v>30018740</v>
+      </c>
       <c r="N533" s="3" t="n">
         <v>45741</v>
       </c>
@@ -50655,26 +50633,20 @@
       </c>
       <c r="S533" t="inlineStr"/>
       <c r="T533" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U533" s="3" t="n">
-        <v>45978</v>
+        <v>45881</v>
       </c>
       <c r="V533" t="inlineStr"/>
       <c r="W533" t="inlineStr"/>
       <c r="X533" t="inlineStr"/>
-      <c r="Y533" t="n">
-        <v>2816.775</v>
-      </c>
-      <c r="Z533" t="n">
-        <v>1796.92</v>
-      </c>
-      <c r="AA533" t="n">
-        <v>298.0017</v>
-      </c>
+      <c r="Y533" t="inlineStr"/>
+      <c r="Z533" t="inlineStr"/>
+      <c r="AA533" t="inlineStr"/>
       <c r="AB533" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -50694,27 +50666,27 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>0110</t>
+          <t>0070</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Modificación en rampa</t>
+          <t>PRUEBA DE ESTABILIDAD</t>
         </is>
       </c>
       <c r="I534" t="n">
@@ -50741,10 +50713,10 @@
       </c>
       <c r="S534" t="inlineStr"/>
       <c r="T534" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U534" s="3" t="n">
-        <v>45978</v>
+        <v>45881</v>
       </c>
       <c r="V534" t="inlineStr"/>
       <c r="W534" t="inlineStr"/>
@@ -50754,7 +50726,7 @@
       <c r="AA534" t="inlineStr"/>
       <c r="AB534" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -50774,27 +50746,27 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015926</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>0120</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Complementario Para Pruebas/Ensayos</t>
+          <t>VARADA/DESVARADA</t>
         </is>
       </c>
       <c r="I535" t="n">
@@ -50809,10 +50781,10 @@
       <c r="L535" t="inlineStr"/>
       <c r="M535" t="inlineStr"/>
       <c r="N535" s="3" t="n">
-        <v>45978</v>
+        <v>45741</v>
       </c>
       <c r="O535" s="3" t="n">
-        <v>45978</v>
+        <v>45741</v>
       </c>
       <c r="P535" t="inlineStr"/>
       <c r="Q535" t="inlineStr"/>
@@ -50821,26 +50793,20 @@
       </c>
       <c r="S535" t="inlineStr"/>
       <c r="T535" s="3" t="n">
-        <v>45978</v>
+        <v>45881</v>
       </c>
       <c r="U535" s="3" t="n">
-        <v>45978</v>
+        <v>45881</v>
       </c>
       <c r="V535" t="inlineStr"/>
       <c r="W535" t="inlineStr"/>
       <c r="X535" t="inlineStr"/>
-      <c r="Y535" t="n">
-        <v>2266.712</v>
-      </c>
-      <c r="Z535" t="n">
-        <v>2229.08</v>
-      </c>
-      <c r="AA535" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y535" t="inlineStr"/>
+      <c r="Z535" t="inlineStr"/>
+      <c r="AA535" t="inlineStr"/>
       <c r="AB535" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -50860,27 +50826,27 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015926</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>0130</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Arriostres Para Armado</t>
+          <t>ESTADIA DE LA EMBARCACION</t>
         </is>
       </c>
       <c r="I536" t="n">
@@ -50895,10 +50861,10 @@
       <c r="L536" t="inlineStr"/>
       <c r="M536" t="inlineStr"/>
       <c r="N536" s="3" t="n">
-        <v>45988</v>
+        <v>45741</v>
       </c>
       <c r="O536" s="3" t="n">
-        <v>45988</v>
+        <v>45741</v>
       </c>
       <c r="P536" t="inlineStr"/>
       <c r="Q536" t="inlineStr"/>
@@ -50907,10 +50873,10 @@
       </c>
       <c r="S536" t="inlineStr"/>
       <c r="T536" s="3" t="n">
-        <v>45988</v>
+        <v>45881</v>
       </c>
       <c r="U536" s="3" t="n">
-        <v>45988</v>
+        <v>45881</v>
       </c>
       <c r="V536" t="inlineStr"/>
       <c r="W536" t="inlineStr"/>
@@ -50920,7 +50886,7 @@
       <c r="AA536" t="inlineStr"/>
       <c r="AB536" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -50940,27 +50906,27 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015926</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Trabajos en frío</t>
+          <t>CALIBRACION</t>
         </is>
       </c>
       <c r="I537" t="n">
@@ -50975,10 +50941,10 @@
       <c r="L537" t="inlineStr"/>
       <c r="M537" t="inlineStr"/>
       <c r="N537" s="3" t="n">
-        <v>45994</v>
+        <v>45894</v>
       </c>
       <c r="O537" s="3" t="n">
-        <v>45994</v>
+        <v>45894</v>
       </c>
       <c r="P537" t="inlineStr"/>
       <c r="Q537" t="inlineStr"/>
@@ -50987,10 +50953,10 @@
       </c>
       <c r="S537" t="inlineStr"/>
       <c r="T537" s="3" t="n">
-        <v>45994</v>
+        <v>45894</v>
       </c>
       <c r="U537" s="3" t="n">
-        <v>45994</v>
+        <v>45894</v>
       </c>
       <c r="V537" t="inlineStr"/>
       <c r="W537" t="inlineStr"/>
@@ -51000,7 +50966,7 @@
       <c r="AA537" t="inlineStr"/>
       <c r="AB537" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -51020,31 +50986,31 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-225-IN-CE</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5016357</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>GARANTIA</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>0170</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Plegado piezas Eslora, barrag, vareng</t>
+          <t>Calderería/Soldadura</t>
         </is>
       </c>
       <c r="I538" t="n">
-        <v>413.07</v>
+        <v>0</v>
       </c>
       <c r="J538" t="inlineStr">
         <is>
@@ -51052,21 +51018,21 @@
         </is>
       </c>
       <c r="K538" t="n">
-        <v>2028255578</v>
+        <v>2060002445</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>ESTRUCTURAS METALICAS INDUSTRIALES</t>
+          <t>COORPORACION JAEGER S.A.C.</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>30019536</v>
+        <v>30019274</v>
       </c>
       <c r="N538" s="3" t="n">
-        <v>45993</v>
+        <v>45932</v>
       </c>
       <c r="O538" s="3" t="n">
-        <v>45993</v>
+        <v>45932</v>
       </c>
       <c r="P538" t="inlineStr"/>
       <c r="Q538" t="inlineStr"/>
@@ -51075,22 +51041,26 @@
       </c>
       <c r="S538" t="inlineStr"/>
       <c r="T538" s="3" t="n">
-        <v>46003</v>
+        <v>45932</v>
       </c>
       <c r="U538" s="3" t="n">
-        <v>46003</v>
-      </c>
-      <c r="V538" s="3" t="n">
-        <v>46003</v>
-      </c>
+        <v>45932</v>
+      </c>
+      <c r="V538" t="inlineStr"/>
       <c r="W538" t="inlineStr"/>
       <c r="X538" t="inlineStr"/>
-      <c r="Y538" t="inlineStr"/>
-      <c r="Z538" t="inlineStr"/>
-      <c r="AA538" t="inlineStr"/>
+      <c r="Y538" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="Z538" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="AA538" t="n">
+        <v>0</v>
+      </c>
       <c r="AB538" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -51110,31 +51080,31 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-IN-CE</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5016357</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>GARANTIA</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Modificación de escotilla</t>
+          <t>Tratamiento Superrficial</t>
         </is>
       </c>
       <c r="I539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J539" t="inlineStr">
         <is>
@@ -51144,13 +51114,13 @@
       <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
-        <v>30018247</v>
+        <v>30019274</v>
       </c>
       <c r="N539" s="3" t="n">
-        <v>45741</v>
+        <v>45932</v>
       </c>
       <c r="O539" s="3" t="n">
-        <v>45741</v>
+        <v>45932</v>
       </c>
       <c r="P539" t="inlineStr"/>
       <c r="Q539" t="inlineStr"/>
@@ -51159,9 +51129,11 @@
       </c>
       <c r="S539" t="inlineStr"/>
       <c r="T539" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U539" t="inlineStr"/>
+        <v>45932</v>
+      </c>
+      <c r="U539" s="3" t="n">
+        <v>45932</v>
+      </c>
       <c r="V539" t="inlineStr"/>
       <c r="W539" t="inlineStr"/>
       <c r="X539" t="inlineStr"/>
@@ -51170,7 +51142,7 @@
       <c r="AA539" t="inlineStr"/>
       <c r="AB539" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -51190,17 +51162,17 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-IN-CA</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015861</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>PROTECCION CATODICA</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
@@ -51210,21 +51182,27 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Confecc canalones de red</t>
+          <t>Resane quemaduras por inst/sold zinc</t>
         </is>
       </c>
       <c r="I540" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="J540" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>2051778677</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>MANNA S.A.C.</t>
+        </is>
+      </c>
       <c r="M540" t="n">
-        <v>30018247</v>
+        <v>30018670</v>
       </c>
       <c r="N540" s="3" t="n">
         <v>45741</v>
@@ -51239,9 +51217,11 @@
       </c>
       <c r="S540" t="inlineStr"/>
       <c r="T540" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U540" t="inlineStr"/>
+        <v>45874</v>
+      </c>
+      <c r="U540" s="3" t="n">
+        <v>45874</v>
+      </c>
       <c r="V540" t="inlineStr"/>
       <c r="W540" t="inlineStr"/>
       <c r="X540" t="inlineStr"/>
@@ -51250,7 +51230,7 @@
       <c r="AA540" t="inlineStr"/>
       <c r="AB540" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -51275,26 +51255,26 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5016413</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>PRUEBAS CNC</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Confecc defensa de red</t>
+          <t>Pruebas CNC</t>
         </is>
       </c>
       <c r="I541" t="n">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="J541" t="inlineStr">
         <is>
@@ -51304,13 +51284,13 @@
       <c r="K541" t="inlineStr"/>
       <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
-        <v>30018247</v>
+        <v>30019346</v>
       </c>
       <c r="N541" s="3" t="n">
-        <v>45741</v>
+        <v>45943</v>
       </c>
       <c r="O541" s="3" t="n">
-        <v>45741</v>
+        <v>45943</v>
       </c>
       <c r="P541" t="inlineStr"/>
       <c r="Q541" t="inlineStr"/>
@@ -51319,9 +51299,11 @@
       </c>
       <c r="S541" t="inlineStr"/>
       <c r="T541" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U541" t="inlineStr"/>
+        <v>45943</v>
+      </c>
+      <c r="U541" s="3" t="n">
+        <v>45943</v>
+      </c>
       <c r="V541" t="inlineStr"/>
       <c r="W541" t="inlineStr"/>
       <c r="X541" t="inlineStr"/>
@@ -51350,31 +51332,31 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5016607</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>ARENADO</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Modificación tambucho popa</t>
+          <t>Arenado Piezas Cuaderna</t>
         </is>
       </c>
       <c r="I542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J542" t="inlineStr">
         <is>
@@ -51383,14 +51365,12 @@
       </c>
       <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr"/>
-      <c r="M542" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M542" t="inlineStr"/>
       <c r="N542" s="3" t="n">
-        <v>45741</v>
+        <v>45988</v>
       </c>
       <c r="O542" s="3" t="n">
-        <v>45741</v>
+        <v>45988</v>
       </c>
       <c r="P542" t="inlineStr"/>
       <c r="Q542" t="inlineStr"/>
@@ -51399,9 +51379,11 @@
       </c>
       <c r="S542" t="inlineStr"/>
       <c r="T542" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U542" t="inlineStr"/>
+        <v>45988</v>
+      </c>
+      <c r="U542" s="3" t="n">
+        <v>45988</v>
+      </c>
       <c r="V542" t="inlineStr"/>
       <c r="W542" t="inlineStr"/>
       <c r="X542" t="inlineStr"/>
@@ -51430,31 +51412,31 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5016608</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>PINTADO</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Injerto plancha en zn winche y pescante</t>
+          <t>Pintado Piezas Cuaderna</t>
         </is>
       </c>
       <c r="I543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J543" t="inlineStr">
         <is>
@@ -51463,14 +51445,12 @@
       </c>
       <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr"/>
-      <c r="M543" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M543" t="inlineStr"/>
       <c r="N543" s="3" t="n">
-        <v>45741</v>
+        <v>45988</v>
       </c>
       <c r="O543" s="3" t="n">
-        <v>45741</v>
+        <v>45988</v>
       </c>
       <c r="P543" t="inlineStr"/>
       <c r="Q543" t="inlineStr"/>
@@ -51479,15 +51459,23 @@
       </c>
       <c r="S543" t="inlineStr"/>
       <c r="T543" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U543" t="inlineStr"/>
+        <v>45988</v>
+      </c>
+      <c r="U543" s="3" t="n">
+        <v>45988</v>
+      </c>
       <c r="V543" t="inlineStr"/>
       <c r="W543" t="inlineStr"/>
       <c r="X543" t="inlineStr"/>
-      <c r="Y543" t="inlineStr"/>
-      <c r="Z543" t="inlineStr"/>
-      <c r="AA543" t="inlineStr"/>
+      <c r="Y543" t="n">
+        <v>844.54</v>
+      </c>
+      <c r="Z543" t="n">
+        <v>766.35</v>
+      </c>
+      <c r="AA543" t="n">
+        <v>0</v>
+      </c>
       <c r="AB543" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -51510,31 +51498,31 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015489</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>INGENIERIA Y DISEÑO</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>0060</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Ampliación desaguador ppal</t>
+          <t>Desarrollo de Planos para DICAPI</t>
         </is>
       </c>
       <c r="I544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J544" t="inlineStr">
         <is>
@@ -51543,9 +51531,7 @@
       </c>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr"/>
-      <c r="M544" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M544" t="inlineStr"/>
       <c r="N544" s="3" t="n">
         <v>45741</v>
       </c>
@@ -51559,9 +51545,11 @@
       </c>
       <c r="S544" t="inlineStr"/>
       <c r="T544" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U544" t="inlineStr"/>
+        <v>45825</v>
+      </c>
+      <c r="U544" s="3" t="n">
+        <v>45911</v>
+      </c>
       <c r="V544" t="inlineStr"/>
       <c r="W544" t="inlineStr"/>
       <c r="X544" t="inlineStr"/>
@@ -51590,31 +51578,31 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015489</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>INGENIERIA Y DISEÑO</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Confección de barandas y escaleras</t>
+          <t>Pruebas de Estabilidad inicial</t>
         </is>
       </c>
       <c r="I545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J545" t="inlineStr">
         <is>
@@ -51623,9 +51611,7 @@
       </c>
       <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr"/>
-      <c r="M545" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M545" t="inlineStr"/>
       <c r="N545" s="3" t="n">
         <v>45741</v>
       </c>
@@ -51639,21 +51625,17 @@
       </c>
       <c r="S545" t="inlineStr"/>
       <c r="T545" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U545" t="inlineStr"/>
+        <v>45825</v>
+      </c>
+      <c r="U545" s="3" t="n">
+        <v>45911</v>
+      </c>
       <c r="V545" t="inlineStr"/>
       <c r="W545" t="inlineStr"/>
       <c r="X545" t="inlineStr"/>
-      <c r="Y545" t="n">
-        <v>1339.808</v>
-      </c>
-      <c r="Z545" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA545" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y545" t="inlineStr"/>
+      <c r="Z545" t="inlineStr"/>
+      <c r="AA545" t="inlineStr"/>
       <c r="AB545" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -51676,31 +51658,31 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015489</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>INGENIERIA Y DISEÑO</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>0080</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Confección de guardacalor</t>
+          <t>Pruebas de Estabilidad final</t>
         </is>
       </c>
       <c r="I546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J546" t="inlineStr">
         <is>
@@ -51709,9 +51691,7 @@
       </c>
       <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr"/>
-      <c r="M546" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M546" t="inlineStr"/>
       <c r="N546" s="3" t="n">
         <v>45741</v>
       </c>
@@ -51725,9 +51705,11 @@
       </c>
       <c r="S546" t="inlineStr"/>
       <c r="T546" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U546" t="inlineStr"/>
+        <v>45825</v>
+      </c>
+      <c r="U546" s="3" t="n">
+        <v>45911</v>
+      </c>
       <c r="V546" t="inlineStr"/>
       <c r="W546" t="inlineStr"/>
       <c r="X546" t="inlineStr"/>
@@ -51756,31 +51738,31 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>0090</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Confección de base bba abosrbente</t>
+          <t>SEGURIDAD INDUSTRIAL</t>
         </is>
       </c>
       <c r="I547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J547" t="inlineStr">
         <is>
@@ -51789,9 +51771,7 @@
       </c>
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr"/>
-      <c r="M547" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M547" t="inlineStr"/>
       <c r="N547" s="3" t="n">
         <v>45741</v>
       </c>
@@ -51805,9 +51785,11 @@
       </c>
       <c r="S547" t="inlineStr"/>
       <c r="T547" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U547" t="inlineStr"/>
+        <v>45741</v>
+      </c>
+      <c r="U547" s="3" t="n">
+        <v>45763</v>
+      </c>
       <c r="V547" t="inlineStr"/>
       <c r="W547" t="inlineStr"/>
       <c r="X547" t="inlineStr"/>
@@ -51836,31 +51818,31 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>0100</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Confección de disparador de panga</t>
+          <t>LIMPIEZA DE PATIO</t>
         </is>
       </c>
       <c r="I548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J548" t="inlineStr">
         <is>
@@ -51869,9 +51851,7 @@
       </c>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr"/>
-      <c r="M548" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M548" t="inlineStr"/>
       <c r="N548" s="3" t="n">
         <v>45741</v>
       </c>
@@ -51885,9 +51865,11 @@
       </c>
       <c r="S548" t="inlineStr"/>
       <c r="T548" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U548" t="inlineStr"/>
+        <v>45741</v>
+      </c>
+      <c r="U548" s="3" t="n">
+        <v>45763</v>
+      </c>
       <c r="V548" t="inlineStr"/>
       <c r="W548" t="inlineStr"/>
       <c r="X548" t="inlineStr"/>
@@ -51916,31 +51898,31 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>0110</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Confección de base de pescante</t>
+          <t>DISPOSICION DE RESIDUOS LIQUIDOS</t>
         </is>
       </c>
       <c r="I549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J549" t="inlineStr">
         <is>
@@ -51949,9 +51931,7 @@
       </c>
       <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr"/>
-      <c r="M549" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M549" t="inlineStr"/>
       <c r="N549" s="3" t="n">
         <v>45741</v>
       </c>
@@ -51965,9 +51945,11 @@
       </c>
       <c r="S549" t="inlineStr"/>
       <c r="T549" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U549" t="inlineStr"/>
+        <v>45741</v>
+      </c>
+      <c r="U549" s="3" t="n">
+        <v>45763</v>
+      </c>
       <c r="V549" t="inlineStr"/>
       <c r="W549" t="inlineStr"/>
       <c r="X549" t="inlineStr"/>
@@ -51996,31 +51978,31 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>0120</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Confección mandil de amurada ER-BR</t>
+          <t>DISPOSICION DE RESIDUOS SOLIDOS</t>
         </is>
       </c>
       <c r="I550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J550" t="inlineStr">
         <is>
@@ -52029,9 +52011,7 @@
       </c>
       <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr"/>
-      <c r="M550" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M550" t="inlineStr"/>
       <c r="N550" s="3" t="n">
         <v>45741</v>
       </c>
@@ -52045,9 +52025,11 @@
       </c>
       <c r="S550" t="inlineStr"/>
       <c r="T550" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U550" t="inlineStr"/>
+        <v>45741</v>
+      </c>
+      <c r="U550" s="3" t="n">
+        <v>45763</v>
+      </c>
       <c r="V550" t="inlineStr"/>
       <c r="W550" t="inlineStr"/>
       <c r="X550" t="inlineStr"/>
@@ -52076,31 +52058,31 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>0130</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Confección ductos vent en bdgas</t>
+          <t>SERVICIO DE GRUA</t>
         </is>
       </c>
       <c r="I551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J551" t="inlineStr">
         <is>
@@ -52109,9 +52091,7 @@
       </c>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr"/>
-      <c r="M551" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M551" t="inlineStr"/>
       <c r="N551" s="3" t="n">
         <v>45741</v>
       </c>
@@ -52125,9 +52105,11 @@
       </c>
       <c r="S551" t="inlineStr"/>
       <c r="T551" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U551" t="inlineStr"/>
+        <v>45741</v>
+      </c>
+      <c r="U551" s="3" t="n">
+        <v>45763</v>
+      </c>
       <c r="V551" t="inlineStr"/>
       <c r="W551" t="inlineStr"/>
       <c r="X551" t="inlineStr"/>
@@ -52156,31 +52138,31 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>0070</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Confección cáncamos de viento</t>
+          <t>PRUEBA DE ESTABILIDAD</t>
         </is>
       </c>
       <c r="I552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J552" t="inlineStr">
         <is>
@@ -52189,9 +52171,7 @@
       </c>
       <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr"/>
-      <c r="M552" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M552" t="inlineStr"/>
       <c r="N552" s="3" t="n">
         <v>45741</v>
       </c>
@@ -52205,9 +52185,11 @@
       </c>
       <c r="S552" t="inlineStr"/>
       <c r="T552" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U552" t="inlineStr"/>
+        <v>45768</v>
+      </c>
+      <c r="U552" s="3" t="n">
+        <v>45768</v>
+      </c>
       <c r="V552" t="inlineStr"/>
       <c r="W552" t="inlineStr"/>
       <c r="X552" t="inlineStr"/>
@@ -52236,31 +52218,31 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>5015496</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>ADITAMENTOS SM</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0090</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Confección piso SM</t>
+          <t>LEGALIZACION DE CUADERNO DE OBRA</t>
         </is>
       </c>
       <c r="I553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J553" t="inlineStr">
         <is>
@@ -52269,14 +52251,12 @@
       </c>
       <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr"/>
-      <c r="M553" t="n">
-        <v>30018249</v>
-      </c>
+      <c r="M553" t="inlineStr"/>
       <c r="N553" s="3" t="n">
-        <v>45741</v>
+        <v>45994</v>
       </c>
       <c r="O553" s="3" t="n">
-        <v>45741</v>
+        <v>45994</v>
       </c>
       <c r="P553" t="inlineStr"/>
       <c r="Q553" t="inlineStr"/>
@@ -52285,9 +52265,11 @@
       </c>
       <c r="S553" t="inlineStr"/>
       <c r="T553" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U553" t="inlineStr"/>
+        <v>45994</v>
+      </c>
+      <c r="U553" s="3" t="n">
+        <v>45994</v>
+      </c>
       <c r="V553" t="inlineStr"/>
       <c r="W553" t="inlineStr"/>
       <c r="X553" t="inlineStr"/>
@@ -52316,31 +52298,31 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-5</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>5015496</t>
+          <t>5015567</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>ADITAMENTOS SM</t>
+          <t>CASTILLO PROA</t>
         </is>
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Confección toma de mar</t>
+          <t>Confecc castillo proa</t>
         </is>
       </c>
       <c r="I554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J554" t="inlineStr">
         <is>
@@ -52349,9 +52331,7 @@
       </c>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr"/>
-      <c r="M554" t="n">
-        <v>30018249</v>
-      </c>
+      <c r="M554" t="inlineStr"/>
       <c r="N554" s="3" t="n">
         <v>45741</v>
       </c>
@@ -52365,15 +52345,23 @@
       </c>
       <c r="S554" t="inlineStr"/>
       <c r="T554" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U554" t="inlineStr"/>
+        <v>45828</v>
+      </c>
+      <c r="U554" s="3" t="n">
+        <v>45981</v>
+      </c>
       <c r="V554" t="inlineStr"/>
       <c r="W554" t="inlineStr"/>
       <c r="X554" t="inlineStr"/>
-      <c r="Y554" t="inlineStr"/>
-      <c r="Z554" t="inlineStr"/>
-      <c r="AA554" t="inlineStr"/>
+      <c r="Y554" t="n">
+        <v>56862.74</v>
+      </c>
+      <c r="Z554" t="n">
+        <v>6184.4</v>
+      </c>
+      <c r="AA554" t="n">
+        <v>1627.77</v>
+      </c>
       <c r="AB554" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -52396,31 +52384,31 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-5</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>5015496</t>
+          <t>5015567</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>ADITAMENTOS SM</t>
+          <t>CASTILLO PROA</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Confección bases de equipos de SM</t>
+          <t>Complementario para confección</t>
         </is>
       </c>
       <c r="I555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J555" t="inlineStr">
         <is>
@@ -52429,14 +52417,12 @@
       </c>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr"/>
-      <c r="M555" t="n">
-        <v>30018249</v>
-      </c>
+      <c r="M555" t="inlineStr"/>
       <c r="N555" s="3" t="n">
-        <v>45741</v>
+        <v>45993</v>
       </c>
       <c r="O555" s="3" t="n">
-        <v>45741</v>
+        <v>45993</v>
       </c>
       <c r="P555" t="inlineStr"/>
       <c r="Q555" t="inlineStr"/>
@@ -52445,9 +52431,11 @@
       </c>
       <c r="S555" t="inlineStr"/>
       <c r="T555" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U555" t="inlineStr"/>
+        <v>45993</v>
+      </c>
+      <c r="U555" s="3" t="n">
+        <v>45993</v>
+      </c>
       <c r="V555" t="inlineStr"/>
       <c r="W555" t="inlineStr"/>
       <c r="X555" t="inlineStr"/>
@@ -52476,17 +52464,17 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-4</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>5015565</t>
+          <t>5015490</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>ALBAÑILERIA</t>
+          <t>ARRIOSTRAMIENTO Y POSICION DE SISEÑO</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
@@ -52496,11 +52484,11 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Lastrado de bodegas</t>
+          <t>Arriostramient de barco por Modificación</t>
         </is>
       </c>
       <c r="I556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J556" t="inlineStr">
         <is>
@@ -52509,9 +52497,7 @@
       </c>
       <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr"/>
-      <c r="M556" t="n">
-        <v>30018340</v>
-      </c>
+      <c r="M556" t="inlineStr"/>
       <c r="N556" s="3" t="n">
         <v>45741</v>
       </c>
@@ -52525,15 +52511,23 @@
       </c>
       <c r="S556" t="inlineStr"/>
       <c r="T556" s="3" t="n">
-        <v>45828</v>
-      </c>
-      <c r="U556" t="inlineStr"/>
+        <v>45825</v>
+      </c>
+      <c r="U556" s="3" t="n">
+        <v>45989</v>
+      </c>
       <c r="V556" t="inlineStr"/>
       <c r="W556" t="inlineStr"/>
       <c r="X556" t="inlineStr"/>
-      <c r="Y556" t="inlineStr"/>
-      <c r="Z556" t="inlineStr"/>
-      <c r="AA556" t="inlineStr"/>
+      <c r="Y556" t="n">
+        <v>9867.24</v>
+      </c>
+      <c r="Z556" t="n">
+        <v>9128.119999999999</v>
+      </c>
+      <c r="AA556" t="n">
+        <v>2034.04176</v>
+      </c>
       <c r="AB556" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -52556,17 +52550,17 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>5015566</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>ARBOLADURA</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G557" t="inlineStr">
@@ -52576,11 +52570,11 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Confección de bípodes</t>
+          <t>Confección Módulo 8 mt de eslora</t>
         </is>
       </c>
       <c r="I557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J557" t="inlineStr">
         <is>
@@ -52589,9 +52583,7 @@
       </c>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr"/>
-      <c r="M557" t="n">
-        <v>30018341</v>
-      </c>
+      <c r="M557" t="inlineStr"/>
       <c r="N557" s="3" t="n">
         <v>45741</v>
       </c>
@@ -52605,15 +52597,23 @@
       </c>
       <c r="S557" t="inlineStr"/>
       <c r="T557" s="3" t="n">
-        <v>45828</v>
-      </c>
-      <c r="U557" t="inlineStr"/>
+        <v>45825</v>
+      </c>
+      <c r="U557" s="3" t="n">
+        <v>45978</v>
+      </c>
       <c r="V557" t="inlineStr"/>
       <c r="W557" t="inlineStr"/>
       <c r="X557" t="inlineStr"/>
-      <c r="Y557" t="inlineStr"/>
-      <c r="Z557" t="inlineStr"/>
-      <c r="AA557" t="inlineStr"/>
+      <c r="Y557" t="n">
+        <v>141551.508</v>
+      </c>
+      <c r="Z557" t="n">
+        <v>131342.2</v>
+      </c>
+      <c r="AA557" t="n">
+        <v>27672.31713</v>
+      </c>
       <c r="AB557" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -52636,27 +52636,27 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>5014996</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>VARADA/DESVARADA</t>
+          <t>Ampliación de manga Popa Br/Er</t>
         </is>
       </c>
       <c r="I558" t="n">
@@ -52683,10 +52683,10 @@
       </c>
       <c r="S558" t="inlineStr"/>
       <c r="T558" s="3" t="n">
-        <v>45741</v>
+        <v>45825</v>
       </c>
       <c r="U558" s="3" t="n">
-        <v>45763</v>
+        <v>45978</v>
       </c>
       <c r="V558" t="inlineStr"/>
       <c r="W558" t="inlineStr"/>
@@ -52716,27 +52716,27 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>5014996</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>ESTADIA DE LA EMBARCACION</t>
+          <t>Inst de mamp nuevos</t>
         </is>
       </c>
       <c r="I559" t="n">
@@ -52754,7 +52754,7 @@
         <v>45741</v>
       </c>
       <c r="O559" s="3" t="n">
-        <v>45835</v>
+        <v>45741</v>
       </c>
       <c r="P559" t="inlineStr"/>
       <c r="Q559" t="inlineStr"/>
@@ -52763,10 +52763,10 @@
       </c>
       <c r="S559" t="inlineStr"/>
       <c r="T559" s="3" t="n">
-        <v>45741</v>
+        <v>45825</v>
       </c>
       <c r="U559" s="3" t="n">
-        <v>45763</v>
+        <v>45978</v>
       </c>
       <c r="V559" t="inlineStr"/>
       <c r="W559" t="inlineStr"/>
@@ -52796,27 +52796,27 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>SEGURIDAD INDUSTRIAL</t>
+          <t>Modificación de base motor</t>
         </is>
       </c>
       <c r="I560" t="n">
@@ -52843,10 +52843,10 @@
       </c>
       <c r="S560" t="inlineStr"/>
       <c r="T560" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U560" s="3" t="n">
-        <v>45881</v>
+        <v>45978</v>
       </c>
       <c r="V560" t="inlineStr"/>
       <c r="W560" t="inlineStr"/>
@@ -52856,7 +52856,7 @@
       <c r="AA560" t="inlineStr"/>
       <c r="AB560" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -52876,27 +52876,27 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>LIMPIEZA DE PATIO</t>
+          <t>Inst tqs nuevos en SM</t>
         </is>
       </c>
       <c r="I561" t="n">
@@ -52923,20 +52923,26 @@
       </c>
       <c r="S561" t="inlineStr"/>
       <c r="T561" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U561" s="3" t="n">
-        <v>45881</v>
+        <v>45978</v>
       </c>
       <c r="V561" t="inlineStr"/>
       <c r="W561" t="inlineStr"/>
       <c r="X561" t="inlineStr"/>
-      <c r="Y561" t="inlineStr"/>
-      <c r="Z561" t="inlineStr"/>
-      <c r="AA561" t="inlineStr"/>
+      <c r="Y561" t="n">
+        <v>12993.695</v>
+      </c>
+      <c r="Z561" t="n">
+        <v>10324.72</v>
+      </c>
+      <c r="AA561" t="n">
+        <v>2835.71344</v>
+      </c>
       <c r="AB561" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -52956,27 +52962,27 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0060</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RESIDUOS LIQUIDOS</t>
+          <t>Modific enfriador de quilla</t>
         </is>
       </c>
       <c r="I562" t="n">
@@ -53003,10 +53009,10 @@
       </c>
       <c r="S562" t="inlineStr"/>
       <c r="T562" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U562" s="3" t="n">
-        <v>45881</v>
+        <v>45978</v>
       </c>
       <c r="V562" t="inlineStr"/>
       <c r="W562" t="inlineStr"/>
@@ -53016,7 +53022,7 @@
       <c r="AA562" t="inlineStr"/>
       <c r="AB562" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -53036,27 +53042,27 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0070</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RESIDUOS SOLIDOS</t>
+          <t>Confección túnel de propulsión</t>
         </is>
       </c>
       <c r="I563" t="n">
@@ -53083,20 +53089,26 @@
       </c>
       <c r="S563" t="inlineStr"/>
       <c r="T563" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U563" s="3" t="n">
-        <v>45881</v>
+        <v>45978</v>
       </c>
       <c r="V563" t="inlineStr"/>
       <c r="W563" t="inlineStr"/>
       <c r="X563" t="inlineStr"/>
-      <c r="Y563" t="inlineStr"/>
-      <c r="Z563" t="inlineStr"/>
-      <c r="AA563" t="inlineStr"/>
+      <c r="Y563" t="n">
+        <v>6407.587</v>
+      </c>
+      <c r="Z563" t="n">
+        <v>5641.32</v>
+      </c>
+      <c r="AA563" t="n">
+        <v>1386.023</v>
+      </c>
       <c r="AB563" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -53116,27 +53128,27 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0080</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>SERVICIO DE GRUA</t>
+          <t>Ampliación de caseta</t>
         </is>
       </c>
       <c r="I564" t="n">
@@ -53163,10 +53175,10 @@
       </c>
       <c r="S564" t="inlineStr"/>
       <c r="T564" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U564" s="3" t="n">
-        <v>45881</v>
+        <v>45978</v>
       </c>
       <c r="V564" t="inlineStr"/>
       <c r="W564" t="inlineStr"/>
@@ -53176,7 +53188,7 @@
       <c r="AA564" t="inlineStr"/>
       <c r="AB564" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -53196,27 +53208,27 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>0060</t>
+          <t>0090</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>grua libre</t>
+          <t>Cbt alzada en popa</t>
         </is>
       </c>
       <c r="I565" t="n">
@@ -53227,17 +53239,9 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="K565" t="n">
-        <v>2053203078</v>
-      </c>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>TRANSGRUAS JHONDAVIS S.A.C.</t>
-        </is>
-      </c>
-      <c r="M565" t="n">
-        <v>30018740</v>
-      </c>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
+      <c r="M565" t="inlineStr"/>
       <c r="N565" s="3" t="n">
         <v>45741</v>
       </c>
@@ -53251,10 +53255,10 @@
       </c>
       <c r="S565" t="inlineStr"/>
       <c r="T565" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U565" s="3" t="n">
-        <v>45881</v>
+        <v>45978</v>
       </c>
       <c r="V565" t="inlineStr"/>
       <c r="W565" t="inlineStr"/>
@@ -53264,7 +53268,7 @@
       <c r="AA565" t="inlineStr"/>
       <c r="AB565" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -53284,27 +53288,27 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0100</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>PRUEBA DE ESTABILIDAD</t>
+          <t>Modificación en popa</t>
         </is>
       </c>
       <c r="I566" t="n">
@@ -53331,20 +53335,26 @@
       </c>
       <c r="S566" t="inlineStr"/>
       <c r="T566" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U566" s="3" t="n">
-        <v>45881</v>
+        <v>45978</v>
       </c>
       <c r="V566" t="inlineStr"/>
       <c r="W566" t="inlineStr"/>
       <c r="X566" t="inlineStr"/>
-      <c r="Y566" t="inlineStr"/>
-      <c r="Z566" t="inlineStr"/>
-      <c r="AA566" t="inlineStr"/>
+      <c r="Y566" t="n">
+        <v>2815.455</v>
+      </c>
+      <c r="Z566" t="n">
+        <v>2102.46</v>
+      </c>
+      <c r="AA566" t="n">
+        <v>298.0017</v>
+      </c>
       <c r="AB566" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -53364,27 +53374,27 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>5015926</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0110</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>VARADA/DESVARADA</t>
+          <t>Modificación en rampa</t>
         </is>
       </c>
       <c r="I567" t="n">
@@ -53411,10 +53421,10 @@
       </c>
       <c r="S567" t="inlineStr"/>
       <c r="T567" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U567" s="3" t="n">
-        <v>45881</v>
+        <v>45978</v>
       </c>
       <c r="V567" t="inlineStr"/>
       <c r="W567" t="inlineStr"/>
@@ -53424,7 +53434,7 @@
       <c r="AA567" t="inlineStr"/>
       <c r="AB567" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -53444,27 +53454,27 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>5015926</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0120</t>
         </is>
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>ESTADIA DE LA EMBARCACION</t>
+          <t>Complementario Para Pruebas/Ensayos</t>
         </is>
       </c>
       <c r="I568" t="n">
@@ -53479,10 +53489,10 @@
       <c r="L568" t="inlineStr"/>
       <c r="M568" t="inlineStr"/>
       <c r="N568" s="3" t="n">
-        <v>45741</v>
+        <v>45978</v>
       </c>
       <c r="O568" s="3" t="n">
-        <v>45741</v>
+        <v>45978</v>
       </c>
       <c r="P568" t="inlineStr"/>
       <c r="Q568" t="inlineStr"/>
@@ -53491,20 +53501,26 @@
       </c>
       <c r="S568" t="inlineStr"/>
       <c r="T568" s="3" t="n">
-        <v>45881</v>
+        <v>45978</v>
       </c>
       <c r="U568" s="3" t="n">
-        <v>45881</v>
+        <v>45978</v>
       </c>
       <c r="V568" t="inlineStr"/>
       <c r="W568" t="inlineStr"/>
       <c r="X568" t="inlineStr"/>
-      <c r="Y568" t="inlineStr"/>
-      <c r="Z568" t="inlineStr"/>
-      <c r="AA568" t="inlineStr"/>
+      <c r="Y568" t="n">
+        <v>2266.712</v>
+      </c>
+      <c r="Z568" t="n">
+        <v>2229.08</v>
+      </c>
+      <c r="AA568" t="n">
+        <v>0</v>
+      </c>
       <c r="AB568" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -53524,27 +53540,27 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>5015926</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0130</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>CALIBRACION</t>
+          <t>Arriostres Para Armado</t>
         </is>
       </c>
       <c r="I569" t="n">
@@ -53559,10 +53575,10 @@
       <c r="L569" t="inlineStr"/>
       <c r="M569" t="inlineStr"/>
       <c r="N569" s="3" t="n">
-        <v>45894</v>
+        <v>45988</v>
       </c>
       <c r="O569" s="3" t="n">
-        <v>45894</v>
+        <v>45988</v>
       </c>
       <c r="P569" t="inlineStr"/>
       <c r="Q569" t="inlineStr"/>
@@ -53571,10 +53587,10 @@
       </c>
       <c r="S569" t="inlineStr"/>
       <c r="T569" s="3" t="n">
-        <v>45894</v>
+        <v>45988</v>
       </c>
       <c r="U569" s="3" t="n">
-        <v>45894</v>
+        <v>45988</v>
       </c>
       <c r="V569" t="inlineStr"/>
       <c r="W569" t="inlineStr"/>
@@ -53584,7 +53600,7 @@
       <c r="AA569" t="inlineStr"/>
       <c r="AB569" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -53604,27 +53620,27 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>A.S/0037-225-IN-CE</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>5016357</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>GARANTIA</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Calderería/Soldadura</t>
+          <t>Trabajos en frío</t>
         </is>
       </c>
       <c r="I570" t="n">
@@ -53635,22 +53651,14 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="K570" t="n">
-        <v>2060002445</v>
-      </c>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>COORPORACION JAEGER S.A.C.</t>
-        </is>
-      </c>
-      <c r="M570" t="n">
-        <v>30019274</v>
-      </c>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
+      <c r="M570" t="inlineStr"/>
       <c r="N570" s="3" t="n">
-        <v>45932</v>
+        <v>45994</v>
       </c>
       <c r="O570" s="3" t="n">
-        <v>45932</v>
+        <v>45994</v>
       </c>
       <c r="P570" t="inlineStr"/>
       <c r="Q570" t="inlineStr"/>
@@ -53659,26 +53667,20 @@
       </c>
       <c r="S570" t="inlineStr"/>
       <c r="T570" s="3" t="n">
-        <v>45932</v>
+        <v>45994</v>
       </c>
       <c r="U570" s="3" t="n">
-        <v>45932</v>
+        <v>45994</v>
       </c>
       <c r="V570" t="inlineStr"/>
       <c r="W570" t="inlineStr"/>
       <c r="X570" t="inlineStr"/>
-      <c r="Y570" t="n">
-        <v>24.62</v>
-      </c>
-      <c r="Z570" t="n">
-        <v>25.52</v>
-      </c>
-      <c r="AA570" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y570" t="inlineStr"/>
+      <c r="Z570" t="inlineStr"/>
+      <c r="AA570" t="inlineStr"/>
       <c r="AB570" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -53698,47 +53700,53 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>A.S/0037-225-IN-CE</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>5016357</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>GARANTIA</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0170</t>
         </is>
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Tratamiento Superrficial</t>
+          <t>Plegado piezas Eslora, barrag, vareng</t>
         </is>
       </c>
       <c r="I571" t="n">
-        <v>0</v>
+        <v>413.07</v>
       </c>
       <c r="J571" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>2028255578</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>ESTRUCTURAS METALICAS INDUSTRIALES</t>
+        </is>
+      </c>
       <c r="M571" t="n">
-        <v>30019274</v>
+        <v>30019536</v>
       </c>
       <c r="N571" s="3" t="n">
-        <v>45932</v>
+        <v>45993</v>
       </c>
       <c r="O571" s="3" t="n">
-        <v>45932</v>
+        <v>45993</v>
       </c>
       <c r="P571" t="inlineStr"/>
       <c r="Q571" t="inlineStr"/>
@@ -53747,12 +53755,14 @@
       </c>
       <c r="S571" t="inlineStr"/>
       <c r="T571" s="3" t="n">
-        <v>45932</v>
+        <v>46003</v>
       </c>
       <c r="U571" s="3" t="n">
-        <v>45932</v>
-      </c>
-      <c r="V571" t="inlineStr"/>
+        <v>46003</v>
+      </c>
+      <c r="V571" s="3" t="n">
+        <v>46003</v>
+      </c>
       <c r="W571" t="inlineStr"/>
       <c r="X571" t="inlineStr"/>
       <c r="Y571" t="inlineStr"/>
@@ -53760,7 +53770,7 @@
       <c r="AA571" t="inlineStr"/>
       <c r="AB571" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -53780,17 +53790,17 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-5</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>5015495</t>
+          <t>5015568</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>ADITAMENTOS CASCO</t>
+          <t>BULBO PROA</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
@@ -53800,11 +53810,11 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Confecc nombre EP y matrícula</t>
+          <t>Confecc bulbo proa</t>
         </is>
       </c>
       <c r="I572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J572" t="inlineStr">
         <is>
@@ -53813,9 +53823,7 @@
       </c>
       <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr"/>
-      <c r="M572" t="n">
-        <v>30018248</v>
-      </c>
+      <c r="M572" t="inlineStr"/>
       <c r="N572" s="3" t="n">
         <v>45741</v>
       </c>
@@ -53829,15 +53837,23 @@
       </c>
       <c r="S572" t="inlineStr"/>
       <c r="T572" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U572" t="inlineStr"/>
+        <v>45828</v>
+      </c>
+      <c r="U572" s="3" t="n">
+        <v>45993</v>
+      </c>
       <c r="V572" t="inlineStr"/>
       <c r="W572" t="inlineStr"/>
       <c r="X572" t="inlineStr"/>
-      <c r="Y572" t="inlineStr"/>
-      <c r="Z572" t="inlineStr"/>
-      <c r="AA572" t="inlineStr"/>
+      <c r="Y572" t="n">
+        <v>33583.383</v>
+      </c>
+      <c r="Z572" t="n">
+        <v>30192.82</v>
+      </c>
+      <c r="AA572" t="n">
+        <v>5594.2083</v>
+      </c>
       <c r="AB572" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -53860,17 +53876,17 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-5</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>5015495</t>
+          <t>5015568</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>ADITAMENTOS CASCO</t>
+          <t>BULBO PROA</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
@@ -53880,11 +53896,11 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Confecc nombre puerto</t>
+          <t>Complementario para confección</t>
         </is>
       </c>
       <c r="I573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J573" t="inlineStr">
         <is>
@@ -53893,14 +53909,12 @@
       </c>
       <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr"/>
-      <c r="M573" t="n">
-        <v>30018248</v>
-      </c>
+      <c r="M573" t="inlineStr"/>
       <c r="N573" s="3" t="n">
-        <v>45741</v>
+        <v>45993</v>
       </c>
       <c r="O573" s="3" t="n">
-        <v>45741</v>
+        <v>45993</v>
       </c>
       <c r="P573" t="inlineStr"/>
       <c r="Q573" t="inlineStr"/>
@@ -53909,15 +53923,23 @@
       </c>
       <c r="S573" t="inlineStr"/>
       <c r="T573" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U573" t="inlineStr"/>
+        <v>45993</v>
+      </c>
+      <c r="U573" s="3" t="n">
+        <v>45993</v>
+      </c>
       <c r="V573" t="inlineStr"/>
       <c r="W573" t="inlineStr"/>
       <c r="X573" t="inlineStr"/>
-      <c r="Y573" t="inlineStr"/>
-      <c r="Z573" t="inlineStr"/>
-      <c r="AA573" t="inlineStr"/>
+      <c r="Y573" t="n">
+        <v>1374.995</v>
+      </c>
+      <c r="Z573" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA573" t="n">
+        <v>0</v>
+      </c>
       <c r="AB573" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -53945,22 +53967,22 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>5015495</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>ADITAMENTOS CASCO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Confección de calados</t>
+          <t>Modificación de escotilla</t>
         </is>
       </c>
       <c r="I574" t="n">
@@ -53974,7 +53996,7 @@
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
-        <v>30018248</v>
+        <v>30018247</v>
       </c>
       <c r="N574" s="3" t="n">
         <v>45741</v>
@@ -53991,7 +54013,9 @@
       <c r="T574" s="3" t="n">
         <v>45826</v>
       </c>
-      <c r="U574" t="inlineStr"/>
+      <c r="U574" s="3" t="n">
+        <v>46009</v>
+      </c>
       <c r="V574" t="inlineStr"/>
       <c r="W574" t="inlineStr"/>
       <c r="X574" t="inlineStr"/>
@@ -54025,22 +54049,22 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>5015495</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>ADITAMENTOS CASCO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Confección de barras defensa</t>
+          <t>Confecc canalones de red</t>
         </is>
       </c>
       <c r="I575" t="n">
@@ -54054,7 +54078,7 @@
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
-        <v>30018248</v>
+        <v>30018247</v>
       </c>
       <c r="N575" s="3" t="n">
         <v>45741</v>
@@ -54071,7 +54095,9 @@
       <c r="T575" s="3" t="n">
         <v>45826</v>
       </c>
-      <c r="U575" t="inlineStr"/>
+      <c r="U575" s="3" t="n">
+        <v>46009</v>
+      </c>
       <c r="V575" t="inlineStr"/>
       <c r="W575" t="inlineStr"/>
       <c r="X575" t="inlineStr"/>
@@ -54105,26 +54131,26 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>5015495</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>ADITAMENTOS CASCO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Confección de placas de zinc</t>
+          <t>Confecc defensa de red</t>
         </is>
       </c>
       <c r="I576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J576" t="inlineStr">
         <is>
@@ -54134,7 +54160,7 @@
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr"/>
       <c r="M576" t="n">
-        <v>30018248</v>
+        <v>30018247</v>
       </c>
       <c r="N576" s="3" t="n">
         <v>45741</v>
@@ -54151,7 +54177,9 @@
       <c r="T576" s="3" t="n">
         <v>45826</v>
       </c>
-      <c r="U576" t="inlineStr"/>
+      <c r="U576" s="3" t="n">
+        <v>46009</v>
+      </c>
       <c r="V576" t="inlineStr"/>
       <c r="W576" t="inlineStr"/>
       <c r="X576" t="inlineStr"/>
@@ -54180,47 +54208,41 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>A.S/0037-225-IN-CA</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>5015861</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>PROTECCION CATODICA</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Resane quemaduras por inst/sold zinc</t>
+          <t>Modificación tambucho popa</t>
         </is>
       </c>
       <c r="I577" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="J577" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K577" t="n">
-        <v>2051778677</v>
-      </c>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>MANNA S.A.C.</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
       <c r="M577" t="n">
-        <v>30018670</v>
+        <v>30018247</v>
       </c>
       <c r="N577" s="3" t="n">
         <v>45741</v>
@@ -54235,10 +54257,10 @@
       </c>
       <c r="S577" t="inlineStr"/>
       <c r="T577" s="3" t="n">
-        <v>45874</v>
+        <v>45826</v>
       </c>
       <c r="U577" s="3" t="n">
-        <v>45874</v>
+        <v>46009</v>
       </c>
       <c r="V577" t="inlineStr"/>
       <c r="W577" t="inlineStr"/>
@@ -54248,7 +54270,7 @@
       <c r="AA577" t="inlineStr"/>
       <c r="AB577" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -54273,26 +54295,26 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>5016413</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>PRUEBAS CNC</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Pruebas CNC</t>
+          <t>Injerto plancha en zn winche y pescante</t>
         </is>
       </c>
       <c r="I578" t="n">
-        <v>6000</v>
+        <v>1</v>
       </c>
       <c r="J578" t="inlineStr">
         <is>
@@ -54302,13 +54324,13 @@
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
-        <v>30019346</v>
+        <v>30018247</v>
       </c>
       <c r="N578" s="3" t="n">
-        <v>45943</v>
+        <v>45741</v>
       </c>
       <c r="O578" s="3" t="n">
-        <v>45943</v>
+        <v>45741</v>
       </c>
       <c r="P578" t="inlineStr"/>
       <c r="Q578" t="inlineStr"/>
@@ -54317,10 +54339,10 @@
       </c>
       <c r="S578" t="inlineStr"/>
       <c r="T578" s="3" t="n">
-        <v>45943</v>
+        <v>45826</v>
       </c>
       <c r="U578" s="3" t="n">
-        <v>45943</v>
+        <v>46009</v>
       </c>
       <c r="V578" t="inlineStr"/>
       <c r="W578" t="inlineStr"/>
@@ -54350,31 +54372,31 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>5016607</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>ARENADO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0060</t>
         </is>
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Arenado Piezas Cuaderna</t>
+          <t>Ampliación desaguador ppal</t>
         </is>
       </c>
       <c r="I579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J579" t="inlineStr">
         <is>
@@ -54383,12 +54405,14 @@
       </c>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr"/>
-      <c r="M579" t="inlineStr"/>
+      <c r="M579" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N579" s="3" t="n">
-        <v>45988</v>
+        <v>45741</v>
       </c>
       <c r="O579" s="3" t="n">
-        <v>45988</v>
+        <v>45741</v>
       </c>
       <c r="P579" t="inlineStr"/>
       <c r="Q579" t="inlineStr"/>
@@ -54397,10 +54421,10 @@
       </c>
       <c r="S579" t="inlineStr"/>
       <c r="T579" s="3" t="n">
-        <v>45988</v>
+        <v>45826</v>
       </c>
       <c r="U579" s="3" t="n">
-        <v>45988</v>
+        <v>46009</v>
       </c>
       <c r="V579" t="inlineStr"/>
       <c r="W579" t="inlineStr"/>
@@ -54430,31 +54454,31 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>5016608</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>PINTADO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0070</t>
         </is>
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Pintado Piezas Cuaderna</t>
+          <t>Confección de barandas y escaleras</t>
         </is>
       </c>
       <c r="I580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J580" t="inlineStr">
         <is>
@@ -54463,12 +54487,14 @@
       </c>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr"/>
-      <c r="M580" t="inlineStr"/>
+      <c r="M580" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N580" s="3" t="n">
-        <v>45988</v>
+        <v>45741</v>
       </c>
       <c r="O580" s="3" t="n">
-        <v>45988</v>
+        <v>45741</v>
       </c>
       <c r="P580" t="inlineStr"/>
       <c r="Q580" t="inlineStr"/>
@@ -54477,22 +54503,22 @@
       </c>
       <c r="S580" t="inlineStr"/>
       <c r="T580" s="3" t="n">
-        <v>45988</v>
+        <v>45826</v>
       </c>
       <c r="U580" s="3" t="n">
-        <v>45988</v>
+        <v>46009</v>
       </c>
       <c r="V580" t="inlineStr"/>
       <c r="W580" t="inlineStr"/>
       <c r="X580" t="inlineStr"/>
       <c r="Y580" t="n">
-        <v>844.54</v>
+        <v>3823.06</v>
       </c>
       <c r="Z580" t="n">
-        <v>766.35</v>
+        <v>953.98</v>
       </c>
       <c r="AA580" t="n">
-        <v>0</v>
+        <v>125.88056</v>
       </c>
       <c r="AB580" t="inlineStr">
         <is>
@@ -54516,31 +54542,31 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>5015489</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>INGENIERIA Y DISEÑO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0080</t>
         </is>
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Desarrollo de Planos para DICAPI</t>
+          <t>Confección de guardacalor</t>
         </is>
       </c>
       <c r="I581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J581" t="inlineStr">
         <is>
@@ -54549,7 +54575,9 @@
       </c>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr"/>
-      <c r="M581" t="inlineStr"/>
+      <c r="M581" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N581" s="3" t="n">
         <v>45741</v>
       </c>
@@ -54563,10 +54591,10 @@
       </c>
       <c r="S581" t="inlineStr"/>
       <c r="T581" s="3" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="U581" s="3" t="n">
-        <v>45911</v>
+        <v>46009</v>
       </c>
       <c r="V581" t="inlineStr"/>
       <c r="W581" t="inlineStr"/>
@@ -54596,31 +54624,31 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>5015489</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>INGENIERIA Y DISEÑO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0090</t>
         </is>
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Pruebas de Estabilidad inicial</t>
+          <t>Confección de base bba abosrbente</t>
         </is>
       </c>
       <c r="I582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J582" t="inlineStr">
         <is>
@@ -54629,7 +54657,9 @@
       </c>
       <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr"/>
-      <c r="M582" t="inlineStr"/>
+      <c r="M582" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N582" s="3" t="n">
         <v>45741</v>
       </c>
@@ -54643,10 +54673,10 @@
       </c>
       <c r="S582" t="inlineStr"/>
       <c r="T582" s="3" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="U582" s="3" t="n">
-        <v>45911</v>
+        <v>46009</v>
       </c>
       <c r="V582" t="inlineStr"/>
       <c r="W582" t="inlineStr"/>
@@ -54676,31 +54706,31 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>5015489</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>INGENIERIA Y DISEÑO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0100</t>
         </is>
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Pruebas de Estabilidad final</t>
+          <t>Confección de disparador de panga</t>
         </is>
       </c>
       <c r="I583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J583" t="inlineStr">
         <is>
@@ -54709,7 +54739,9 @@
       </c>
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr"/>
-      <c r="M583" t="inlineStr"/>
+      <c r="M583" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N583" s="3" t="n">
         <v>45741</v>
       </c>
@@ -54723,10 +54755,10 @@
       </c>
       <c r="S583" t="inlineStr"/>
       <c r="T583" s="3" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="U583" s="3" t="n">
-        <v>45911</v>
+        <v>46009</v>
       </c>
       <c r="V583" t="inlineStr"/>
       <c r="W583" t="inlineStr"/>
@@ -54756,31 +54788,31 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0110</t>
         </is>
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>SEGURIDAD INDUSTRIAL</t>
+          <t>Confección de base de pescante</t>
         </is>
       </c>
       <c r="I584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J584" t="inlineStr">
         <is>
@@ -54789,7 +54821,9 @@
       </c>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr"/>
-      <c r="M584" t="inlineStr"/>
+      <c r="M584" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N584" s="3" t="n">
         <v>45741</v>
       </c>
@@ -54803,10 +54837,10 @@
       </c>
       <c r="S584" t="inlineStr"/>
       <c r="T584" s="3" t="n">
-        <v>45741</v>
+        <v>45826</v>
       </c>
       <c r="U584" s="3" t="n">
-        <v>45763</v>
+        <v>46009</v>
       </c>
       <c r="V584" t="inlineStr"/>
       <c r="W584" t="inlineStr"/>
@@ -54836,31 +54870,31 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0120</t>
         </is>
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>LIMPIEZA DE PATIO</t>
+          <t>Confección mandil de amurada ER-BR</t>
         </is>
       </c>
       <c r="I585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J585" t="inlineStr">
         <is>
@@ -54869,7 +54903,9 @@
       </c>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr"/>
-      <c r="M585" t="inlineStr"/>
+      <c r="M585" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N585" s="3" t="n">
         <v>45741</v>
       </c>
@@ -54883,10 +54919,10 @@
       </c>
       <c r="S585" t="inlineStr"/>
       <c r="T585" s="3" t="n">
-        <v>45741</v>
+        <v>45826</v>
       </c>
       <c r="U585" s="3" t="n">
-        <v>45763</v>
+        <v>46009</v>
       </c>
       <c r="V585" t="inlineStr"/>
       <c r="W585" t="inlineStr"/>
@@ -54916,31 +54952,31 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0130</t>
         </is>
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RESIDUOS LIQUIDOS</t>
+          <t>Confección ductos vent en bdgas</t>
         </is>
       </c>
       <c r="I586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J586" t="inlineStr">
         <is>
@@ -54949,7 +54985,9 @@
       </c>
       <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr"/>
-      <c r="M586" t="inlineStr"/>
+      <c r="M586" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N586" s="3" t="n">
         <v>45741</v>
       </c>
@@ -54963,10 +55001,10 @@
       </c>
       <c r="S586" t="inlineStr"/>
       <c r="T586" s="3" t="n">
-        <v>45741</v>
+        <v>45826</v>
       </c>
       <c r="U586" s="3" t="n">
-        <v>45763</v>
+        <v>46009</v>
       </c>
       <c r="V586" t="inlineStr"/>
       <c r="W586" t="inlineStr"/>
@@ -54996,31 +55034,31 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RESIDUOS SOLIDOS</t>
+          <t>Confección cáncamos de viento</t>
         </is>
       </c>
       <c r="I587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J587" t="inlineStr">
         <is>
@@ -55029,7 +55067,9 @@
       </c>
       <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr"/>
-      <c r="M587" t="inlineStr"/>
+      <c r="M587" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N587" s="3" t="n">
         <v>45741</v>
       </c>
@@ -55043,10 +55083,10 @@
       </c>
       <c r="S587" t="inlineStr"/>
       <c r="T587" s="3" t="n">
-        <v>45741</v>
+        <v>45826</v>
       </c>
       <c r="U587" s="3" t="n">
-        <v>45763</v>
+        <v>46009</v>
       </c>
       <c r="V587" t="inlineStr"/>
       <c r="W587" t="inlineStr"/>
@@ -55076,31 +55116,31 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5015495</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS CASCO</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>SERVICIO DE GRUA</t>
+          <t>Confecc nombre EP y matrícula</t>
         </is>
       </c>
       <c r="I588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J588" t="inlineStr">
         <is>
@@ -55109,7 +55149,9 @@
       </c>
       <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr"/>
-      <c r="M588" t="inlineStr"/>
+      <c r="M588" t="n">
+        <v>30018248</v>
+      </c>
       <c r="N588" s="3" t="n">
         <v>45741</v>
       </c>
@@ -55123,17 +55165,21 @@
       </c>
       <c r="S588" t="inlineStr"/>
       <c r="T588" s="3" t="n">
-        <v>45741</v>
-      </c>
-      <c r="U588" s="3" t="n">
-        <v>45763</v>
-      </c>
+        <v>45826</v>
+      </c>
+      <c r="U588" t="inlineStr"/>
       <c r="V588" t="inlineStr"/>
       <c r="W588" t="inlineStr"/>
       <c r="X588" t="inlineStr"/>
-      <c r="Y588" t="inlineStr"/>
-      <c r="Z588" t="inlineStr"/>
-      <c r="AA588" t="inlineStr"/>
+      <c r="Y588" t="n">
+        <v>952.6990000000001</v>
+      </c>
+      <c r="Z588" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA588" t="n">
+        <v>0</v>
+      </c>
       <c r="AB588" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -55156,31 +55202,31 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5015495</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS CASCO</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>PRUEBA DE ESTABILIDAD</t>
+          <t>Confecc nombre puerto</t>
         </is>
       </c>
       <c r="I589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J589" t="inlineStr">
         <is>
@@ -55189,7 +55235,9 @@
       </c>
       <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr"/>
-      <c r="M589" t="inlineStr"/>
+      <c r="M589" t="n">
+        <v>30018248</v>
+      </c>
       <c r="N589" s="3" t="n">
         <v>45741</v>
       </c>
@@ -55203,11 +55251,9 @@
       </c>
       <c r="S589" t="inlineStr"/>
       <c r="T589" s="3" t="n">
-        <v>45768</v>
-      </c>
-      <c r="U589" s="3" t="n">
-        <v>45768</v>
-      </c>
+        <v>45826</v>
+      </c>
+      <c r="U589" t="inlineStr"/>
       <c r="V589" t="inlineStr"/>
       <c r="W589" t="inlineStr"/>
       <c r="X589" t="inlineStr"/>
@@ -55236,31 +55282,31 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5015495</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS CASCO</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>0090</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>LEGALIZACION DE CUADERNO DE OBRA</t>
+          <t>Confección de calados</t>
         </is>
       </c>
       <c r="I590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J590" t="inlineStr">
         <is>
@@ -55269,12 +55315,14 @@
       </c>
       <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr"/>
-      <c r="M590" t="inlineStr"/>
+      <c r="M590" t="n">
+        <v>30018248</v>
+      </c>
       <c r="N590" s="3" t="n">
-        <v>45994</v>
+        <v>45741</v>
       </c>
       <c r="O590" s="3" t="n">
-        <v>45994</v>
+        <v>45741</v>
       </c>
       <c r="P590" t="inlineStr"/>
       <c r="Q590" t="inlineStr"/>
@@ -55283,17 +55331,21 @@
       </c>
       <c r="S590" t="inlineStr"/>
       <c r="T590" s="3" t="n">
-        <v>45994</v>
-      </c>
-      <c r="U590" s="3" t="n">
-        <v>45994</v>
-      </c>
+        <v>45826</v>
+      </c>
+      <c r="U590" t="inlineStr"/>
       <c r="V590" t="inlineStr"/>
       <c r="W590" t="inlineStr"/>
       <c r="X590" t="inlineStr"/>
-      <c r="Y590" t="inlineStr"/>
-      <c r="Z590" t="inlineStr"/>
-      <c r="AA590" t="inlineStr"/>
+      <c r="Y590" t="n">
+        <v>772.438</v>
+      </c>
+      <c r="Z590" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA590" t="n">
+        <v>0</v>
+      </c>
       <c r="AB590" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -55316,31 +55368,31 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-5</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>5015567</t>
+          <t>5015495</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>CASTILLO PROA</t>
+          <t>ADITAMENTOS CASCO</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Confecc castillo proa</t>
+          <t>Confección de barras defensa</t>
         </is>
       </c>
       <c r="I591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J591" t="inlineStr">
         <is>
@@ -55349,7 +55401,9 @@
       </c>
       <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr"/>
-      <c r="M591" t="inlineStr"/>
+      <c r="M591" t="n">
+        <v>30018248</v>
+      </c>
       <c r="N591" s="3" t="n">
         <v>45741</v>
       </c>
@@ -55363,23 +55417,15 @@
       </c>
       <c r="S591" t="inlineStr"/>
       <c r="T591" s="3" t="n">
-        <v>45828</v>
-      </c>
-      <c r="U591" s="3" t="n">
-        <v>45981</v>
-      </c>
+        <v>45826</v>
+      </c>
+      <c r="U591" t="inlineStr"/>
       <c r="V591" t="inlineStr"/>
       <c r="W591" t="inlineStr"/>
       <c r="X591" t="inlineStr"/>
-      <c r="Y591" t="n">
-        <v>56862.74</v>
-      </c>
-      <c r="Z591" t="n">
-        <v>6184.4</v>
-      </c>
-      <c r="AA591" t="n">
-        <v>1627.77</v>
-      </c>
+      <c r="Y591" t="inlineStr"/>
+      <c r="Z591" t="inlineStr"/>
+      <c r="AA591" t="inlineStr"/>
       <c r="AB591" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -55402,27 +55448,27 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-5</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>5015567</t>
+          <t>5015495</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>CASTILLO PROA</t>
+          <t>ADITAMENTOS CASCO</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Complementario para confección</t>
+          <t>Confección de placas de zinc</t>
         </is>
       </c>
       <c r="I592" t="n">
@@ -55435,12 +55481,14 @@
       </c>
       <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr"/>
-      <c r="M592" t="inlineStr"/>
+      <c r="M592" t="n">
+        <v>30018248</v>
+      </c>
       <c r="N592" s="3" t="n">
-        <v>45993</v>
+        <v>45741</v>
       </c>
       <c r="O592" s="3" t="n">
-        <v>45993</v>
+        <v>45741</v>
       </c>
       <c r="P592" t="inlineStr"/>
       <c r="Q592" t="inlineStr"/>
@@ -55449,11 +55497,9 @@
       </c>
       <c r="S592" t="inlineStr"/>
       <c r="T592" s="3" t="n">
-        <v>45993</v>
-      </c>
-      <c r="U592" s="3" t="n">
-        <v>45993</v>
-      </c>
+        <v>45826</v>
+      </c>
+      <c r="U592" t="inlineStr"/>
       <c r="V592" t="inlineStr"/>
       <c r="W592" t="inlineStr"/>
       <c r="X592" t="inlineStr"/>

--- a/Modulo/UTI.xlsx
+++ b/Modulo/UTI.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB592"/>
+  <dimension ref="A1:AB598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43658,31 +43658,31 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-5</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015568</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>BULBO PROA</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>0180</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>2da Valorización Confección Módulo</t>
+          <t>1er Valorización Confección Bulbo</t>
         </is>
       </c>
       <c r="I461" t="n">
-        <v>53395.05</v>
+        <v>3097.96</v>
       </c>
       <c r="J461" t="inlineStr">
         <is>
@@ -43698,7 +43698,7 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>30019536</v>
+        <v>30019622</v>
       </c>
       <c r="N461" s="3" t="n">
         <v>45741</v>
@@ -43709,11 +43709,15 @@
       <c r="P461" s="3" t="n">
         <v>46008</v>
       </c>
-      <c r="Q461" t="inlineStr"/>
+      <c r="Q461" t="n">
+        <v>5010248827</v>
+      </c>
       <c r="R461" t="n">
-        <v>0</v>
-      </c>
-      <c r="S461" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="S461" t="n">
+        <v>1002853758</v>
+      </c>
       <c r="T461" s="3" t="n">
         <v>46008</v>
       </c>
@@ -43750,31 +43754,31 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-5</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>5015568</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>BULBO PROA</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0180</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>1er Valorización Confección Bulbo</t>
+          <t>2da Valorización Confección Módulo</t>
         </is>
       </c>
       <c r="I462" t="n">
-        <v>3097.96</v>
+        <v>53395.05</v>
       </c>
       <c r="J462" t="inlineStr">
         <is>
@@ -43790,7 +43794,7 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>30019622</v>
+        <v>30019536</v>
       </c>
       <c r="N462" s="3" t="n">
         <v>45741</v>
@@ -43802,13 +43806,13 @@
         <v>46008</v>
       </c>
       <c r="Q462" t="n">
-        <v>5010248827</v>
+        <v>5010250549</v>
       </c>
       <c r="R462" t="n">
         <v>10</v>
       </c>
       <c r="S462" t="n">
-        <v>1002853758</v>
+        <v>1002878962</v>
       </c>
       <c r="T462" s="3" t="n">
         <v>46008</v>
@@ -43903,7 +43907,9 @@
       <c r="R463" t="n">
         <v>10</v>
       </c>
-      <c r="S463" t="inlineStr"/>
+      <c r="S463" t="n">
+        <v>1002863638</v>
+      </c>
       <c r="T463" s="3" t="n">
         <v>45995</v>
       </c>
@@ -46285,7 +46291,7 @@
       </c>
       <c r="W487" t="inlineStr"/>
       <c r="X487" t="n">
-        <v>5105627005</v>
+        <v>5105627008</v>
       </c>
       <c r="Y487" t="inlineStr"/>
       <c r="Z487" t="inlineStr"/>
@@ -49604,7 +49610,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -49618,41 +49624,47 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>5015496</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>ADITAMENTOS SM</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0120</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Confección piso SM</t>
+          <t>Limpieza de Carril sem 51</t>
         </is>
       </c>
       <c r="I521" t="n">
-        <v>1</v>
+        <v>456</v>
       </c>
       <c r="J521" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>2056921109</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>EMPRESA DE SERVICIOS MOBYDICK S.A.C</t>
+        </is>
+      </c>
       <c r="M521" t="n">
-        <v>30018249</v>
+        <v>30017850</v>
       </c>
       <c r="N521" s="3" t="n">
         <v>45741</v>
@@ -49660,17 +49672,23 @@
       <c r="O521" s="3" t="n">
         <v>45741</v>
       </c>
-      <c r="P521" t="inlineStr"/>
+      <c r="P521" s="3" t="n">
+        <v>46027</v>
+      </c>
       <c r="Q521" t="inlineStr"/>
       <c r="R521" t="n">
         <v>0</v>
       </c>
       <c r="S521" t="inlineStr"/>
       <c r="T521" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U521" t="inlineStr"/>
-      <c r="V521" t="inlineStr"/>
+        <v>46024</v>
+      </c>
+      <c r="U521" s="3" t="n">
+        <v>46024</v>
+      </c>
+      <c r="V521" s="3" t="n">
+        <v>46024</v>
+      </c>
       <c r="W521" t="inlineStr"/>
       <c r="X521" t="inlineStr"/>
       <c r="Y521" t="inlineStr"/>
@@ -49684,7 +49702,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -49698,41 +49716,47 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>5015496</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>ADITAMENTOS SM</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0110</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Confección toma de mar</t>
+          <t>Limpieza de Carril sem 51</t>
         </is>
       </c>
       <c r="I522" t="n">
-        <v>1</v>
+        <v>1026</v>
       </c>
       <c r="J522" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
       <c r="M522" t="n">
-        <v>30018249</v>
+        <v>30017850</v>
       </c>
       <c r="N522" s="3" t="n">
         <v>45741</v>
@@ -49740,17 +49764,23 @@
       <c r="O522" s="3" t="n">
         <v>45741</v>
       </c>
-      <c r="P522" t="inlineStr"/>
+      <c r="P522" s="3" t="n">
+        <v>46024</v>
+      </c>
       <c r="Q522" t="inlineStr"/>
       <c r="R522" t="n">
         <v>0</v>
       </c>
       <c r="S522" t="inlineStr"/>
       <c r="T522" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U522" t="inlineStr"/>
-      <c r="V522" t="inlineStr"/>
+        <v>46015</v>
+      </c>
+      <c r="U522" s="3" t="n">
+        <v>46015</v>
+      </c>
+      <c r="V522" s="3" t="n">
+        <v>46015</v>
+      </c>
       <c r="W522" t="inlineStr"/>
       <c r="X522" t="inlineStr"/>
       <c r="Y522" t="inlineStr"/>
@@ -49778,31 +49808,31 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-5</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>5015496</t>
+          <t>5015568</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>ADITAMENTOS SM</t>
+          <t>BULBO PROA</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Confección bases de equipos de SM</t>
+          <t>Confecc bulbo proa</t>
         </is>
       </c>
       <c r="I523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J523" t="inlineStr">
         <is>
@@ -49811,9 +49841,7 @@
       </c>
       <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr"/>
-      <c r="M523" t="n">
-        <v>30018249</v>
-      </c>
+      <c r="M523" t="inlineStr"/>
       <c r="N523" s="3" t="n">
         <v>45741</v>
       </c>
@@ -49827,15 +49855,23 @@
       </c>
       <c r="S523" t="inlineStr"/>
       <c r="T523" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U523" t="inlineStr"/>
+        <v>45828</v>
+      </c>
+      <c r="U523" s="3" t="n">
+        <v>45993</v>
+      </c>
       <c r="V523" t="inlineStr"/>
       <c r="W523" t="inlineStr"/>
       <c r="X523" t="inlineStr"/>
-      <c r="Y523" t="inlineStr"/>
-      <c r="Z523" t="inlineStr"/>
-      <c r="AA523" t="inlineStr"/>
+      <c r="Y523" t="n">
+        <v>33583.393</v>
+      </c>
+      <c r="Z523" t="n">
+        <v>31090.11</v>
+      </c>
+      <c r="AA523" t="n">
+        <v>5594.2083</v>
+      </c>
       <c r="AB523" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -49858,31 +49894,31 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-4</t>
+          <t>A.S/0037-125-PI-5</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>5015565</t>
+          <t>5015568</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>ALBAÑILERIA</t>
+          <t>BULBO PROA</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Lastrado de bodegas</t>
+          <t>Complementario para confección</t>
         </is>
       </c>
       <c r="I524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J524" t="inlineStr">
         <is>
@@ -49891,14 +49927,12 @@
       </c>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr"/>
-      <c r="M524" t="n">
-        <v>30018340</v>
-      </c>
+      <c r="M524" t="inlineStr"/>
       <c r="N524" s="3" t="n">
-        <v>45741</v>
+        <v>45993</v>
       </c>
       <c r="O524" s="3" t="n">
-        <v>45741</v>
+        <v>45993</v>
       </c>
       <c r="P524" t="inlineStr"/>
       <c r="Q524" t="inlineStr"/>
@@ -49907,15 +49941,23 @@
       </c>
       <c r="S524" t="inlineStr"/>
       <c r="T524" s="3" t="n">
-        <v>45828</v>
-      </c>
-      <c r="U524" t="inlineStr"/>
+        <v>45993</v>
+      </c>
+      <c r="U524" s="3" t="n">
+        <v>46014</v>
+      </c>
       <c r="V524" t="inlineStr"/>
       <c r="W524" t="inlineStr"/>
       <c r="X524" t="inlineStr"/>
-      <c r="Y524" t="inlineStr"/>
-      <c r="Z524" t="inlineStr"/>
-      <c r="AA524" t="inlineStr"/>
+      <c r="Y524" t="n">
+        <v>1488.255</v>
+      </c>
+      <c r="Z524" t="n">
+        <v>1757.82</v>
+      </c>
+      <c r="AA524" t="n">
+        <v>0</v>
+      </c>
       <c r="AB524" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -49938,17 +49980,17 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>5015566</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>ARBOLADURA</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -49958,11 +50000,11 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Confección de bípodes</t>
+          <t>SEGURIDAD INDUSTRIAL</t>
         </is>
       </c>
       <c r="I525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J525" t="inlineStr">
         <is>
@@ -49971,9 +50013,7 @@
       </c>
       <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr"/>
-      <c r="M525" t="n">
-        <v>30018341</v>
-      </c>
+      <c r="M525" t="inlineStr"/>
       <c r="N525" s="3" t="n">
         <v>45741</v>
       </c>
@@ -49987,9 +50027,11 @@
       </c>
       <c r="S525" t="inlineStr"/>
       <c r="T525" s="3" t="n">
-        <v>45828</v>
-      </c>
-      <c r="U525" t="inlineStr"/>
+        <v>45741</v>
+      </c>
+      <c r="U525" s="3" t="n">
+        <v>45763</v>
+      </c>
       <c r="V525" t="inlineStr"/>
       <c r="W525" t="inlineStr"/>
       <c r="X525" t="inlineStr"/>
@@ -50023,22 +50065,22 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>5014996</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>VARADA/DESVARADA</t>
+          <t>LIMPIEZA DE PATIO</t>
         </is>
       </c>
       <c r="I526" t="n">
@@ -50103,22 +50145,22 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>5014996</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>ESTADIA DE LA EMBARCACION</t>
+          <t>DISPOSICION DE RESIDUOS LIQUIDOS</t>
         </is>
       </c>
       <c r="I527" t="n">
@@ -50136,7 +50178,7 @@
         <v>45741</v>
       </c>
       <c r="O527" s="3" t="n">
-        <v>45835</v>
+        <v>45741</v>
       </c>
       <c r="P527" t="inlineStr"/>
       <c r="Q527" t="inlineStr"/>
@@ -50178,12 +50220,12 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -50193,12 +50235,12 @@
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>SEGURIDAD INDUSTRIAL</t>
+          <t>DISPOSICION DE RESIDUOS SOLIDOS</t>
         </is>
       </c>
       <c r="I528" t="n">
@@ -50225,10 +50267,10 @@
       </c>
       <c r="S528" t="inlineStr"/>
       <c r="T528" s="3" t="n">
-        <v>45881</v>
+        <v>45741</v>
       </c>
       <c r="U528" s="3" t="n">
-        <v>45881</v>
+        <v>45763</v>
       </c>
       <c r="V528" t="inlineStr"/>
       <c r="W528" t="inlineStr"/>
@@ -50238,7 +50280,7 @@
       <c r="AA528" t="inlineStr"/>
       <c r="AB528" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -50258,12 +50300,12 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -50273,12 +50315,12 @@
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>LIMPIEZA DE PATIO</t>
+          <t>SERVICIO DE GRUA</t>
         </is>
       </c>
       <c r="I529" t="n">
@@ -50305,10 +50347,10 @@
       </c>
       <c r="S529" t="inlineStr"/>
       <c r="T529" s="3" t="n">
-        <v>45881</v>
+        <v>45741</v>
       </c>
       <c r="U529" s="3" t="n">
-        <v>45881</v>
+        <v>45763</v>
       </c>
       <c r="V529" t="inlineStr"/>
       <c r="W529" t="inlineStr"/>
@@ -50318,7 +50360,7 @@
       <c r="AA529" t="inlineStr"/>
       <c r="AB529" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -50338,12 +50380,12 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -50353,12 +50395,12 @@
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0070</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RESIDUOS LIQUIDOS</t>
+          <t>PRUEBA DE ESTABILIDAD</t>
         </is>
       </c>
       <c r="I530" t="n">
@@ -50385,10 +50427,10 @@
       </c>
       <c r="S530" t="inlineStr"/>
       <c r="T530" s="3" t="n">
-        <v>45881</v>
+        <v>45768</v>
       </c>
       <c r="U530" s="3" t="n">
-        <v>45881</v>
+        <v>45768</v>
       </c>
       <c r="V530" t="inlineStr"/>
       <c r="W530" t="inlineStr"/>
@@ -50398,7 +50440,7 @@
       <c r="AA530" t="inlineStr"/>
       <c r="AB530" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -50418,12 +50460,12 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-1</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5014997</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
@@ -50433,12 +50475,12 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0090</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RESIDUOS SOLIDOS</t>
+          <t>LEGALIZACION DE CUADERNO DE OBRA</t>
         </is>
       </c>
       <c r="I531" t="n">
@@ -50453,10 +50495,10 @@
       <c r="L531" t="inlineStr"/>
       <c r="M531" t="inlineStr"/>
       <c r="N531" s="3" t="n">
-        <v>45741</v>
+        <v>45994</v>
       </c>
       <c r="O531" s="3" t="n">
-        <v>45741</v>
+        <v>45994</v>
       </c>
       <c r="P531" t="inlineStr"/>
       <c r="Q531" t="inlineStr"/>
@@ -50465,10 +50507,10 @@
       </c>
       <c r="S531" t="inlineStr"/>
       <c r="T531" s="3" t="n">
-        <v>45881</v>
+        <v>45994</v>
       </c>
       <c r="U531" s="3" t="n">
-        <v>45881</v>
+        <v>45994</v>
       </c>
       <c r="V531" t="inlineStr"/>
       <c r="W531" t="inlineStr"/>
@@ -50478,7 +50520,7 @@
       <c r="AA531" t="inlineStr"/>
       <c r="AB531" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -50498,31 +50540,31 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>SERVICIO DE GRUA</t>
+          <t>Modificación de escotilla</t>
         </is>
       </c>
       <c r="I532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J532" t="inlineStr">
         <is>
@@ -50531,7 +50573,9 @@
       </c>
       <c r="K532" t="inlineStr"/>
       <c r="L532" t="inlineStr"/>
-      <c r="M532" t="inlineStr"/>
+      <c r="M532" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N532" s="3" t="n">
         <v>45741</v>
       </c>
@@ -50545,10 +50589,10 @@
       </c>
       <c r="S532" t="inlineStr"/>
       <c r="T532" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U532" s="3" t="n">
-        <v>45881</v>
+        <v>46009</v>
       </c>
       <c r="V532" t="inlineStr"/>
       <c r="W532" t="inlineStr"/>
@@ -50558,7 +50602,7 @@
       <c r="AA532" t="inlineStr"/>
       <c r="AB532" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -50578,47 +50622,41 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>0060</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>grua libre</t>
+          <t>Confecc canalones de red</t>
         </is>
       </c>
       <c r="I533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J533" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K533" t="n">
-        <v>2053203078</v>
-      </c>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>TRANSGRUAS JHONDAVIS S.A.C.</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
-        <v>30018740</v>
+        <v>30018247</v>
       </c>
       <c r="N533" s="3" t="n">
         <v>45741</v>
@@ -50633,20 +50671,26 @@
       </c>
       <c r="S533" t="inlineStr"/>
       <c r="T533" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U533" s="3" t="n">
-        <v>45881</v>
+        <v>46009</v>
       </c>
       <c r="V533" t="inlineStr"/>
       <c r="W533" t="inlineStr"/>
       <c r="X533" t="inlineStr"/>
-      <c r="Y533" t="inlineStr"/>
-      <c r="Z533" t="inlineStr"/>
-      <c r="AA533" t="inlineStr"/>
+      <c r="Y533" t="n">
+        <v>4184.159</v>
+      </c>
+      <c r="Z533" t="n">
+        <v>3901.82</v>
+      </c>
+      <c r="AA533" t="n">
+        <v>839.92932</v>
+      </c>
       <c r="AB533" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -50666,31 +50710,31 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>5015927</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>PRUEBA DE ESTABILIDAD</t>
+          <t>Confecc defensa de red</t>
         </is>
       </c>
       <c r="I534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J534" t="inlineStr">
         <is>
@@ -50699,7 +50743,9 @@
       </c>
       <c r="K534" t="inlineStr"/>
       <c r="L534" t="inlineStr"/>
-      <c r="M534" t="inlineStr"/>
+      <c r="M534" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N534" s="3" t="n">
         <v>45741</v>
       </c>
@@ -50713,10 +50759,10 @@
       </c>
       <c r="S534" t="inlineStr"/>
       <c r="T534" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U534" s="3" t="n">
-        <v>45881</v>
+        <v>46009</v>
       </c>
       <c r="V534" t="inlineStr"/>
       <c r="W534" t="inlineStr"/>
@@ -50726,7 +50772,7 @@
       <c r="AA534" t="inlineStr"/>
       <c r="AB534" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -50746,31 +50792,31 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>5015926</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>VARADA/DESVARADA</t>
+          <t>Modificación tambuchos</t>
         </is>
       </c>
       <c r="I535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J535" t="inlineStr">
         <is>
@@ -50779,7 +50825,9 @@
       </c>
       <c r="K535" t="inlineStr"/>
       <c r="L535" t="inlineStr"/>
-      <c r="M535" t="inlineStr"/>
+      <c r="M535" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N535" s="3" t="n">
         <v>45741</v>
       </c>
@@ -50793,20 +50841,26 @@
       </c>
       <c r="S535" t="inlineStr"/>
       <c r="T535" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U535" s="3" t="n">
-        <v>45881</v>
+        <v>46009</v>
       </c>
       <c r="V535" t="inlineStr"/>
       <c r="W535" t="inlineStr"/>
       <c r="X535" t="inlineStr"/>
-      <c r="Y535" t="inlineStr"/>
-      <c r="Z535" t="inlineStr"/>
-      <c r="AA535" t="inlineStr"/>
+      <c r="Y535" t="n">
+        <v>5565.992</v>
+      </c>
+      <c r="Z535" t="n">
+        <v>1301.48</v>
+      </c>
+      <c r="AA535" t="n">
+        <v>294.61873</v>
+      </c>
       <c r="AB535" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -50826,31 +50880,31 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>5015926</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>ESTADIA DE LA EMBARCACION</t>
+          <t>Injerto plancha en zn winche y pescante</t>
         </is>
       </c>
       <c r="I536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J536" t="inlineStr">
         <is>
@@ -50859,7 +50913,9 @@
       </c>
       <c r="K536" t="inlineStr"/>
       <c r="L536" t="inlineStr"/>
-      <c r="M536" t="inlineStr"/>
+      <c r="M536" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N536" s="3" t="n">
         <v>45741</v>
       </c>
@@ -50873,10 +50929,10 @@
       </c>
       <c r="S536" t="inlineStr"/>
       <c r="T536" s="3" t="n">
-        <v>45881</v>
+        <v>45826</v>
       </c>
       <c r="U536" s="3" t="n">
-        <v>45881</v>
+        <v>46009</v>
       </c>
       <c r="V536" t="inlineStr"/>
       <c r="W536" t="inlineStr"/>
@@ -50886,7 +50942,7 @@
       <c r="AA536" t="inlineStr"/>
       <c r="AB536" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -50906,31 +50962,31 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>A.S/0037-225-SI</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>5015926</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0060</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>CALIBRACION</t>
+          <t>Ampliación desaguador ppal</t>
         </is>
       </c>
       <c r="I537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J537" t="inlineStr">
         <is>
@@ -50939,12 +50995,14 @@
       </c>
       <c r="K537" t="inlineStr"/>
       <c r="L537" t="inlineStr"/>
-      <c r="M537" t="inlineStr"/>
+      <c r="M537" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N537" s="3" t="n">
-        <v>45894</v>
+        <v>45741</v>
       </c>
       <c r="O537" s="3" t="n">
-        <v>45894</v>
+        <v>45741</v>
       </c>
       <c r="P537" t="inlineStr"/>
       <c r="Q537" t="inlineStr"/>
@@ -50953,10 +51011,10 @@
       </c>
       <c r="S537" t="inlineStr"/>
       <c r="T537" s="3" t="n">
-        <v>45894</v>
+        <v>45826</v>
       </c>
       <c r="U537" s="3" t="n">
-        <v>45894</v>
+        <v>46009</v>
       </c>
       <c r="V537" t="inlineStr"/>
       <c r="W537" t="inlineStr"/>
@@ -50966,7 +51024,7 @@
       <c r="AA537" t="inlineStr"/>
       <c r="AB537" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -50986,53 +51044,47 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>A.S/0037-225-IN-CE</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>5016357</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>GARANTIA</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0070</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Calderería/Soldadura</t>
+          <t>Confección de barandas y escaleras</t>
         </is>
       </c>
       <c r="I538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J538" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K538" t="n">
-        <v>2060002445</v>
-      </c>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>COORPORACION JAEGER S.A.C.</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
-        <v>30019274</v>
+        <v>30018247</v>
       </c>
       <c r="N538" s="3" t="n">
-        <v>45932</v>
+        <v>45741</v>
       </c>
       <c r="O538" s="3" t="n">
-        <v>45932</v>
+        <v>45741</v>
       </c>
       <c r="P538" t="inlineStr"/>
       <c r="Q538" t="inlineStr"/>
@@ -51041,26 +51093,26 @@
       </c>
       <c r="S538" t="inlineStr"/>
       <c r="T538" s="3" t="n">
-        <v>45932</v>
+        <v>45826</v>
       </c>
       <c r="U538" s="3" t="n">
-        <v>45932</v>
+        <v>46009</v>
       </c>
       <c r="V538" t="inlineStr"/>
       <c r="W538" t="inlineStr"/>
       <c r="X538" t="inlineStr"/>
       <c r="Y538" t="n">
-        <v>24.62</v>
+        <v>3502.811</v>
       </c>
       <c r="Z538" t="n">
-        <v>25.52</v>
+        <v>3403.98</v>
       </c>
       <c r="AA538" t="n">
-        <v>0</v>
+        <v>221.46095</v>
       </c>
       <c r="AB538" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -51080,31 +51132,31 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>A.S/0037-225-IN-CE</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>5016357</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>GARANTIA</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0080</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Tratamiento Superrficial</t>
+          <t>Confección de guardacalor</t>
         </is>
       </c>
       <c r="I539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J539" t="inlineStr">
         <is>
@@ -51114,13 +51166,13 @@
       <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
-        <v>30019274</v>
+        <v>30018247</v>
       </c>
       <c r="N539" s="3" t="n">
-        <v>45932</v>
+        <v>45741</v>
       </c>
       <c r="O539" s="3" t="n">
-        <v>45932</v>
+        <v>45741</v>
       </c>
       <c r="P539" t="inlineStr"/>
       <c r="Q539" t="inlineStr"/>
@@ -51129,10 +51181,10 @@
       </c>
       <c r="S539" t="inlineStr"/>
       <c r="T539" s="3" t="n">
-        <v>45932</v>
+        <v>45826</v>
       </c>
       <c r="U539" s="3" t="n">
-        <v>45932</v>
+        <v>46009</v>
       </c>
       <c r="V539" t="inlineStr"/>
       <c r="W539" t="inlineStr"/>
@@ -51142,7 +51194,7 @@
       <c r="AA539" t="inlineStr"/>
       <c r="AB539" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -51162,47 +51214,41 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>A.S/0037-225-IN-CA</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>5015861</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>PROTECCION CATODICA</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0090</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Resane quemaduras por inst/sold zinc</t>
+          <t>Confección de base bba abosrbente</t>
         </is>
       </c>
       <c r="I540" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="J540" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K540" t="n">
-        <v>2051778677</v>
-      </c>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>MANNA S.A.C.</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
-        <v>30018670</v>
+        <v>30018247</v>
       </c>
       <c r="N540" s="3" t="n">
         <v>45741</v>
@@ -51217,10 +51263,10 @@
       </c>
       <c r="S540" t="inlineStr"/>
       <c r="T540" s="3" t="n">
-        <v>45874</v>
+        <v>45826</v>
       </c>
       <c r="U540" s="3" t="n">
-        <v>45874</v>
+        <v>46009</v>
       </c>
       <c r="V540" t="inlineStr"/>
       <c r="W540" t="inlineStr"/>
@@ -51230,7 +51276,7 @@
       <c r="AA540" t="inlineStr"/>
       <c r="AB540" t="inlineStr">
         <is>
-          <t>SAMA I CARENA</t>
+          <t>SAMA I MODULO</t>
         </is>
       </c>
     </row>
@@ -51255,26 +51301,26 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>5016413</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>PRUEBAS CNC</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0100</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Pruebas CNC</t>
+          <t>Confección de disparador de panga</t>
         </is>
       </c>
       <c r="I541" t="n">
-        <v>6000</v>
+        <v>1</v>
       </c>
       <c r="J541" t="inlineStr">
         <is>
@@ -51284,13 +51330,13 @@
       <c r="K541" t="inlineStr"/>
       <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
-        <v>30019346</v>
+        <v>30018247</v>
       </c>
       <c r="N541" s="3" t="n">
-        <v>45943</v>
+        <v>45741</v>
       </c>
       <c r="O541" s="3" t="n">
-        <v>45943</v>
+        <v>45741</v>
       </c>
       <c r="P541" t="inlineStr"/>
       <c r="Q541" t="inlineStr"/>
@@ -51299,10 +51345,10 @@
       </c>
       <c r="S541" t="inlineStr"/>
       <c r="T541" s="3" t="n">
-        <v>45943</v>
+        <v>45826</v>
       </c>
       <c r="U541" s="3" t="n">
-        <v>45943</v>
+        <v>46009</v>
       </c>
       <c r="V541" t="inlineStr"/>
       <c r="W541" t="inlineStr"/>
@@ -51332,31 +51378,31 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>5016607</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>ARENADO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0110</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Arenado Piezas Cuaderna</t>
+          <t>Confección de base de pescante</t>
         </is>
       </c>
       <c r="I542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J542" t="inlineStr">
         <is>
@@ -51365,12 +51411,14 @@
       </c>
       <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr"/>
-      <c r="M542" t="inlineStr"/>
+      <c r="M542" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N542" s="3" t="n">
-        <v>45988</v>
+        <v>45741</v>
       </c>
       <c r="O542" s="3" t="n">
-        <v>45988</v>
+        <v>45741</v>
       </c>
       <c r="P542" t="inlineStr"/>
       <c r="Q542" t="inlineStr"/>
@@ -51379,10 +51427,10 @@
       </c>
       <c r="S542" t="inlineStr"/>
       <c r="T542" s="3" t="n">
-        <v>45988</v>
+        <v>45826</v>
       </c>
       <c r="U542" s="3" t="n">
-        <v>45988</v>
+        <v>46009</v>
       </c>
       <c r="V542" t="inlineStr"/>
       <c r="W542" t="inlineStr"/>
@@ -51412,31 +51460,31 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>5016608</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>PINTADO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0120</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Pintado Piezas Cuaderna</t>
+          <t>Confección mandil de amurada ER-BR</t>
         </is>
       </c>
       <c r="I543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J543" t="inlineStr">
         <is>
@@ -51445,12 +51493,14 @@
       </c>
       <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr"/>
-      <c r="M543" t="inlineStr"/>
+      <c r="M543" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N543" s="3" t="n">
-        <v>45988</v>
+        <v>45741</v>
       </c>
       <c r="O543" s="3" t="n">
-        <v>45988</v>
+        <v>45741</v>
       </c>
       <c r="P543" t="inlineStr"/>
       <c r="Q543" t="inlineStr"/>
@@ -51459,23 +51509,17 @@
       </c>
       <c r="S543" t="inlineStr"/>
       <c r="T543" s="3" t="n">
-        <v>45988</v>
+        <v>45826</v>
       </c>
       <c r="U543" s="3" t="n">
-        <v>45988</v>
+        <v>46009</v>
       </c>
       <c r="V543" t="inlineStr"/>
       <c r="W543" t="inlineStr"/>
       <c r="X543" t="inlineStr"/>
-      <c r="Y543" t="n">
-        <v>844.54</v>
-      </c>
-      <c r="Z543" t="n">
-        <v>766.35</v>
-      </c>
-      <c r="AA543" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y543" t="inlineStr"/>
+      <c r="Z543" t="inlineStr"/>
+      <c r="AA543" t="inlineStr"/>
       <c r="AB543" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -51498,31 +51542,31 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>5015489</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>INGENIERIA Y DISEÑO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0130</t>
         </is>
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Desarrollo de Planos para DICAPI</t>
+          <t>Confección ductos vent en bdgas</t>
         </is>
       </c>
       <c r="I544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J544" t="inlineStr">
         <is>
@@ -51531,7 +51575,9 @@
       </c>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr"/>
-      <c r="M544" t="inlineStr"/>
+      <c r="M544" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N544" s="3" t="n">
         <v>45741</v>
       </c>
@@ -51545,10 +51591,10 @@
       </c>
       <c r="S544" t="inlineStr"/>
       <c r="T544" s="3" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="U544" s="3" t="n">
-        <v>45911</v>
+        <v>46009</v>
       </c>
       <c r="V544" t="inlineStr"/>
       <c r="W544" t="inlineStr"/>
@@ -51578,31 +51624,31 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>5015489</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>INGENIERIA Y DISEÑO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Pruebas de Estabilidad inicial</t>
+          <t>Confección cáncamos de viento</t>
         </is>
       </c>
       <c r="I545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J545" t="inlineStr">
         <is>
@@ -51611,7 +51657,9 @@
       </c>
       <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr"/>
-      <c r="M545" t="inlineStr"/>
+      <c r="M545" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N545" s="3" t="n">
         <v>45741</v>
       </c>
@@ -51625,10 +51673,10 @@
       </c>
       <c r="S545" t="inlineStr"/>
       <c r="T545" s="3" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="U545" s="3" t="n">
-        <v>45911</v>
+        <v>46009</v>
       </c>
       <c r="V545" t="inlineStr"/>
       <c r="W545" t="inlineStr"/>
@@ -51658,27 +51706,27 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>5015489</t>
+          <t>5015492</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>INGENIERIA Y DISEÑO</t>
+          <t>ADITAMENTOS DE CBT</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0150</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Pruebas de Estabilidad final</t>
+          <t>Confección de miscelanios</t>
         </is>
       </c>
       <c r="I546" t="n">
@@ -51691,12 +51739,14 @@
       </c>
       <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr"/>
-      <c r="M546" t="inlineStr"/>
+      <c r="M546" t="n">
+        <v>30018247</v>
+      </c>
       <c r="N546" s="3" t="n">
-        <v>45741</v>
+        <v>46020</v>
       </c>
       <c r="O546" s="3" t="n">
-        <v>45741</v>
+        <v>46020</v>
       </c>
       <c r="P546" t="inlineStr"/>
       <c r="Q546" t="inlineStr"/>
@@ -51705,17 +51755,23 @@
       </c>
       <c r="S546" t="inlineStr"/>
       <c r="T546" s="3" t="n">
-        <v>45825</v>
+        <v>46020</v>
       </c>
       <c r="U546" s="3" t="n">
-        <v>45911</v>
+        <v>46020</v>
       </c>
       <c r="V546" t="inlineStr"/>
       <c r="W546" t="inlineStr"/>
       <c r="X546" t="inlineStr"/>
-      <c r="Y546" t="inlineStr"/>
-      <c r="Z546" t="inlineStr"/>
-      <c r="AA546" t="inlineStr"/>
+      <c r="Y546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z546" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA546" t="n">
+        <v>0</v>
+      </c>
       <c r="AB546" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -51738,17 +51794,17 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5015496</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS SM</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
@@ -51758,11 +51814,11 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>SEGURIDAD INDUSTRIAL</t>
+          <t>Confección piso SM</t>
         </is>
       </c>
       <c r="I547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J547" t="inlineStr">
         <is>
@@ -51771,7 +51827,9 @@
       </c>
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr"/>
-      <c r="M547" t="inlineStr"/>
+      <c r="M547" t="n">
+        <v>30018249</v>
+      </c>
       <c r="N547" s="3" t="n">
         <v>45741</v>
       </c>
@@ -51785,11 +51843,9 @@
       </c>
       <c r="S547" t="inlineStr"/>
       <c r="T547" s="3" t="n">
-        <v>45741</v>
-      </c>
-      <c r="U547" s="3" t="n">
-        <v>45763</v>
-      </c>
+        <v>45826</v>
+      </c>
+      <c r="U547" t="inlineStr"/>
       <c r="V547" t="inlineStr"/>
       <c r="W547" t="inlineStr"/>
       <c r="X547" t="inlineStr"/>
@@ -51818,17 +51874,17 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5015496</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS SM</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
@@ -51838,11 +51894,11 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>LIMPIEZA DE PATIO</t>
+          <t>Confección toma de mar</t>
         </is>
       </c>
       <c r="I548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J548" t="inlineStr">
         <is>
@@ -51851,7 +51907,9 @@
       </c>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr"/>
-      <c r="M548" t="inlineStr"/>
+      <c r="M548" t="n">
+        <v>30018249</v>
+      </c>
       <c r="N548" s="3" t="n">
         <v>45741</v>
       </c>
@@ -51865,17 +51923,23 @@
       </c>
       <c r="S548" t="inlineStr"/>
       <c r="T548" s="3" t="n">
-        <v>45741</v>
+        <v>45826</v>
       </c>
       <c r="U548" s="3" t="n">
-        <v>45763</v>
+        <v>46021</v>
       </c>
       <c r="V548" t="inlineStr"/>
       <c r="W548" t="inlineStr"/>
       <c r="X548" t="inlineStr"/>
-      <c r="Y548" t="inlineStr"/>
-      <c r="Z548" t="inlineStr"/>
-      <c r="AA548" t="inlineStr"/>
+      <c r="Y548" t="n">
+        <v>1893.721</v>
+      </c>
+      <c r="Z548" t="n">
+        <v>1604.73</v>
+      </c>
+      <c r="AA548" t="n">
+        <v>261.75825</v>
+      </c>
       <c r="AB548" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -51898,17 +51962,17 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5015496</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ADITAMENTOS SM</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
@@ -51918,11 +51982,11 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RESIDUOS LIQUIDOS</t>
+          <t>Confección bases de equipos de SM</t>
         </is>
       </c>
       <c r="I549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J549" t="inlineStr">
         <is>
@@ -51931,7 +51995,9 @@
       </c>
       <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr"/>
-      <c r="M549" t="inlineStr"/>
+      <c r="M549" t="n">
+        <v>30018249</v>
+      </c>
       <c r="N549" s="3" t="n">
         <v>45741</v>
       </c>
@@ -51945,10 +52011,10 @@
       </c>
       <c r="S549" t="inlineStr"/>
       <c r="T549" s="3" t="n">
-        <v>45741</v>
+        <v>45826</v>
       </c>
       <c r="U549" s="3" t="n">
-        <v>45763</v>
+        <v>46021</v>
       </c>
       <c r="V549" t="inlineStr"/>
       <c r="W549" t="inlineStr"/>
@@ -51983,22 +52049,22 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5014996</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RESIDUOS SOLIDOS</t>
+          <t>VARADA/DESVARADA</t>
         </is>
       </c>
       <c r="I550" t="n">
@@ -52063,22 +52129,22 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5014996</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>SERVICIO DE GRUA</t>
+          <t>ESTADIA DE LA EMBARCACION</t>
         </is>
       </c>
       <c r="I551" t="n">
@@ -52096,7 +52162,7 @@
         <v>45741</v>
       </c>
       <c r="O551" s="3" t="n">
-        <v>45741</v>
+        <v>45835</v>
       </c>
       <c r="P551" t="inlineStr"/>
       <c r="Q551" t="inlineStr"/>
@@ -52138,45 +52204,53 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-11</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5016777</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ARBOLADURA</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>PRUEBA DE ESTABILIDAD</t>
+          <t>Confección de mastíl</t>
         </is>
       </c>
       <c r="I552" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J552" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
-      <c r="M552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>2060344015</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>PROYECTOS Y REPARACIONES NAVALES JL</t>
+        </is>
+      </c>
+      <c r="M552" t="n">
+        <v>30019679</v>
+      </c>
       <c r="N552" s="3" t="n">
-        <v>45741</v>
+        <v>46027</v>
       </c>
       <c r="O552" s="3" t="n">
-        <v>45741</v>
+        <v>46027</v>
       </c>
       <c r="P552" t="inlineStr"/>
       <c r="Q552" t="inlineStr"/>
@@ -52185,10 +52259,10 @@
       </c>
       <c r="S552" t="inlineStr"/>
       <c r="T552" s="3" t="n">
-        <v>45768</v>
+        <v>46027</v>
       </c>
       <c r="U552" s="3" t="n">
-        <v>45768</v>
+        <v>46027</v>
       </c>
       <c r="V552" t="inlineStr"/>
       <c r="W552" t="inlineStr"/>
@@ -52218,45 +52292,53 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-1</t>
+          <t>A.S/0037-125-11</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>5014997</t>
+          <t>5016777</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>ARBOLADURA</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>0090</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>LEGALIZACION DE CUADERNO DE OBRA</t>
+          <t>Confección Base para tinteros</t>
         </is>
       </c>
       <c r="I553" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="J553" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
-      <c r="M553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>2056924663</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>REPARACIONES NAVALES M &amp; B S.A.C.</t>
+        </is>
+      </c>
+      <c r="M553" t="n">
+        <v>30019679</v>
+      </c>
       <c r="N553" s="3" t="n">
-        <v>45994</v>
+        <v>46027</v>
       </c>
       <c r="O553" s="3" t="n">
-        <v>45994</v>
+        <v>46027</v>
       </c>
       <c r="P553" t="inlineStr"/>
       <c r="Q553" t="inlineStr"/>
@@ -52265,10 +52347,10 @@
       </c>
       <c r="S553" t="inlineStr"/>
       <c r="T553" s="3" t="n">
-        <v>45994</v>
+        <v>46027</v>
       </c>
       <c r="U553" s="3" t="n">
-        <v>45994</v>
+        <v>46027</v>
       </c>
       <c r="V553" t="inlineStr"/>
       <c r="W553" t="inlineStr"/>
@@ -52298,17 +52380,17 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-5</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>5015567</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>CASTILLO PROA</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G554" t="inlineStr">
@@ -52318,7 +52400,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Confecc castillo proa</t>
+          <t>Confección Módulo 8 mt de eslora</t>
         </is>
       </c>
       <c r="I554" t="n">
@@ -52345,22 +52427,22 @@
       </c>
       <c r="S554" t="inlineStr"/>
       <c r="T554" s="3" t="n">
-        <v>45828</v>
+        <v>45825</v>
       </c>
       <c r="U554" s="3" t="n">
-        <v>45981</v>
+        <v>45978</v>
       </c>
       <c r="V554" t="inlineStr"/>
       <c r="W554" t="inlineStr"/>
       <c r="X554" t="inlineStr"/>
       <c r="Y554" t="n">
-        <v>56862.74</v>
+        <v>141551.511</v>
       </c>
       <c r="Z554" t="n">
-        <v>6184.4</v>
+        <v>132327.59</v>
       </c>
       <c r="AA554" t="n">
-        <v>1627.77</v>
+        <v>27672.31713</v>
       </c>
       <c r="AB554" t="inlineStr">
         <is>
@@ -52384,17 +52466,17 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-5</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>5015567</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>CASTILLO PROA</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
@@ -52404,7 +52486,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Complementario para confección</t>
+          <t>Ampliación de manga Popa Br/Er</t>
         </is>
       </c>
       <c r="I555" t="n">
@@ -52419,10 +52501,10 @@
       <c r="L555" t="inlineStr"/>
       <c r="M555" t="inlineStr"/>
       <c r="N555" s="3" t="n">
-        <v>45993</v>
+        <v>45741</v>
       </c>
       <c r="O555" s="3" t="n">
-        <v>45993</v>
+        <v>45741</v>
       </c>
       <c r="P555" t="inlineStr"/>
       <c r="Q555" t="inlineStr"/>
@@ -52431,10 +52513,10 @@
       </c>
       <c r="S555" t="inlineStr"/>
       <c r="T555" s="3" t="n">
-        <v>45993</v>
+        <v>45825</v>
       </c>
       <c r="U555" s="3" t="n">
-        <v>45993</v>
+        <v>45978</v>
       </c>
       <c r="V555" t="inlineStr"/>
       <c r="W555" t="inlineStr"/>
@@ -52469,22 +52551,22 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>5015490</t>
+          <t>5015491</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>ARRIOSTRAMIENTO Y POSICION DE SISEÑO</t>
+          <t>ESTRUCTURA</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Arriostramient de barco por Modificación</t>
+          <t>Inst de mamp nuevos</t>
         </is>
       </c>
       <c r="I556" t="n">
@@ -52514,20 +52596,14 @@
         <v>45825</v>
       </c>
       <c r="U556" s="3" t="n">
-        <v>45989</v>
+        <v>45978</v>
       </c>
       <c r="V556" t="inlineStr"/>
       <c r="W556" t="inlineStr"/>
       <c r="X556" t="inlineStr"/>
-      <c r="Y556" t="n">
-        <v>9867.24</v>
-      </c>
-      <c r="Z556" t="n">
-        <v>9128.119999999999</v>
-      </c>
-      <c r="AA556" t="n">
-        <v>2034.04176</v>
-      </c>
+      <c r="Y556" t="inlineStr"/>
+      <c r="Z556" t="inlineStr"/>
+      <c r="AA556" t="inlineStr"/>
       <c r="AB556" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -52565,12 +52641,12 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Confección Módulo 8 mt de eslora</t>
+          <t>Modificación de base motor</t>
         </is>
       </c>
       <c r="I557" t="n">
@@ -52597,7 +52673,7 @@
       </c>
       <c r="S557" t="inlineStr"/>
       <c r="T557" s="3" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="U557" s="3" t="n">
         <v>45978</v>
@@ -52605,15 +52681,9 @@
       <c r="V557" t="inlineStr"/>
       <c r="W557" t="inlineStr"/>
       <c r="X557" t="inlineStr"/>
-      <c r="Y557" t="n">
-        <v>141551.508</v>
-      </c>
-      <c r="Z557" t="n">
-        <v>131342.2</v>
-      </c>
-      <c r="AA557" t="n">
-        <v>27672.31713</v>
-      </c>
+      <c r="Y557" t="inlineStr"/>
+      <c r="Z557" t="inlineStr"/>
+      <c r="AA557" t="inlineStr"/>
       <c r="AB557" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -52651,12 +52721,12 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Ampliación de manga Popa Br/Er</t>
+          <t>Inst tqs nuevos en SM</t>
         </is>
       </c>
       <c r="I558" t="n">
@@ -52683,7 +52753,7 @@
       </c>
       <c r="S558" t="inlineStr"/>
       <c r="T558" s="3" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="U558" s="3" t="n">
         <v>45978</v>
@@ -52691,9 +52761,15 @@
       <c r="V558" t="inlineStr"/>
       <c r="W558" t="inlineStr"/>
       <c r="X558" t="inlineStr"/>
-      <c r="Y558" t="inlineStr"/>
-      <c r="Z558" t="inlineStr"/>
-      <c r="AA558" t="inlineStr"/>
+      <c r="Y558" t="n">
+        <v>15225.745</v>
+      </c>
+      <c r="Z558" t="n">
+        <v>12139.43</v>
+      </c>
+      <c r="AA558" t="n">
+        <v>2944.23144</v>
+      </c>
       <c r="AB558" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -52731,12 +52807,12 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0060</t>
         </is>
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Inst de mamp nuevos</t>
+          <t>Modific enfriador de quilla</t>
         </is>
       </c>
       <c r="I559" t="n">
@@ -52763,7 +52839,7 @@
       </c>
       <c r="S559" t="inlineStr"/>
       <c r="T559" s="3" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="U559" s="3" t="n">
         <v>45978</v>
@@ -52811,12 +52887,12 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0070</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Modificación de base motor</t>
+          <t>Confección túnel de propulsión</t>
         </is>
       </c>
       <c r="I560" t="n">
@@ -52851,9 +52927,15 @@
       <c r="V560" t="inlineStr"/>
       <c r="W560" t="inlineStr"/>
       <c r="X560" t="inlineStr"/>
-      <c r="Y560" t="inlineStr"/>
-      <c r="Z560" t="inlineStr"/>
-      <c r="AA560" t="inlineStr"/>
+      <c r="Y560" t="n">
+        <v>6407.587</v>
+      </c>
+      <c r="Z560" t="n">
+        <v>6390.6</v>
+      </c>
+      <c r="AA560" t="n">
+        <v>1386.023</v>
+      </c>
       <c r="AB560" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -52891,12 +52973,12 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0080</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Inst tqs nuevos en SM</t>
+          <t>Ampliación de caseta</t>
         </is>
       </c>
       <c r="I561" t="n">
@@ -52931,15 +53013,9 @@
       <c r="V561" t="inlineStr"/>
       <c r="W561" t="inlineStr"/>
       <c r="X561" t="inlineStr"/>
-      <c r="Y561" t="n">
-        <v>12993.695</v>
-      </c>
-      <c r="Z561" t="n">
-        <v>10324.72</v>
-      </c>
-      <c r="AA561" t="n">
-        <v>2835.71344</v>
-      </c>
+      <c r="Y561" t="inlineStr"/>
+      <c r="Z561" t="inlineStr"/>
+      <c r="AA561" t="inlineStr"/>
       <c r="AB561" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -52977,12 +53053,12 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>0060</t>
+          <t>0090</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Modific enfriador de quilla</t>
+          <t>Cbt alzada en popa</t>
         </is>
       </c>
       <c r="I562" t="n">
@@ -53057,12 +53133,12 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0100</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Confección túnel de propulsión</t>
+          <t>Modificación en popa</t>
         </is>
       </c>
       <c r="I563" t="n">
@@ -53098,13 +53174,13 @@
       <c r="W563" t="inlineStr"/>
       <c r="X563" t="inlineStr"/>
       <c r="Y563" t="n">
-        <v>6407.587</v>
+        <v>2815.455</v>
       </c>
       <c r="Z563" t="n">
-        <v>5641.32</v>
+        <v>2102.46</v>
       </c>
       <c r="AA563" t="n">
-        <v>1386.023</v>
+        <v>298.0017</v>
       </c>
       <c r="AB563" t="inlineStr">
         <is>
@@ -53143,12 +53219,12 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>0080</t>
+          <t>0110</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Ampliación de caseta</t>
+          <t>Modificación en rampa</t>
         </is>
       </c>
       <c r="I564" t="n">
@@ -53223,12 +53299,12 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>0090</t>
+          <t>0120</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Cbt alzada en popa</t>
+          <t>Complementario Para Pruebas/Ensayos</t>
         </is>
       </c>
       <c r="I565" t="n">
@@ -53243,10 +53319,10 @@
       <c r="L565" t="inlineStr"/>
       <c r="M565" t="inlineStr"/>
       <c r="N565" s="3" t="n">
-        <v>45741</v>
+        <v>45978</v>
       </c>
       <c r="O565" s="3" t="n">
-        <v>45741</v>
+        <v>45978</v>
       </c>
       <c r="P565" t="inlineStr"/>
       <c r="Q565" t="inlineStr"/>
@@ -53255,7 +53331,7 @@
       </c>
       <c r="S565" t="inlineStr"/>
       <c r="T565" s="3" t="n">
-        <v>45826</v>
+        <v>45978</v>
       </c>
       <c r="U565" s="3" t="n">
         <v>45978</v>
@@ -53263,9 +53339,15 @@
       <c r="V565" t="inlineStr"/>
       <c r="W565" t="inlineStr"/>
       <c r="X565" t="inlineStr"/>
-      <c r="Y565" t="inlineStr"/>
-      <c r="Z565" t="inlineStr"/>
-      <c r="AA565" t="inlineStr"/>
+      <c r="Y565" t="n">
+        <v>2266.712</v>
+      </c>
+      <c r="Z565" t="n">
+        <v>2229.08</v>
+      </c>
+      <c r="AA565" t="n">
+        <v>0</v>
+      </c>
       <c r="AB565" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -53303,12 +53385,12 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>0100</t>
+          <t>0130</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Modificación en popa</t>
+          <t>Arriostres Para Armado</t>
         </is>
       </c>
       <c r="I566" t="n">
@@ -53323,10 +53405,10 @@
       <c r="L566" t="inlineStr"/>
       <c r="M566" t="inlineStr"/>
       <c r="N566" s="3" t="n">
-        <v>45741</v>
+        <v>45988</v>
       </c>
       <c r="O566" s="3" t="n">
-        <v>45741</v>
+        <v>45988</v>
       </c>
       <c r="P566" t="inlineStr"/>
       <c r="Q566" t="inlineStr"/>
@@ -53335,22 +53417,22 @@
       </c>
       <c r="S566" t="inlineStr"/>
       <c r="T566" s="3" t="n">
-        <v>45826</v>
+        <v>45988</v>
       </c>
       <c r="U566" s="3" t="n">
-        <v>45978</v>
+        <v>45988</v>
       </c>
       <c r="V566" t="inlineStr"/>
       <c r="W566" t="inlineStr"/>
       <c r="X566" t="inlineStr"/>
       <c r="Y566" t="n">
-        <v>2815.455</v>
+        <v>1754.294</v>
       </c>
       <c r="Z566" t="n">
-        <v>2102.46</v>
+        <v>1420.22</v>
       </c>
       <c r="AA566" t="n">
-        <v>298.0017</v>
+        <v>254.42478</v>
       </c>
       <c r="AB566" t="inlineStr">
         <is>
@@ -53389,12 +53471,12 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>0110</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Modificación en rampa</t>
+          <t>Trabajos en frío</t>
         </is>
       </c>
       <c r="I567" t="n">
@@ -53409,10 +53491,10 @@
       <c r="L567" t="inlineStr"/>
       <c r="M567" t="inlineStr"/>
       <c r="N567" s="3" t="n">
-        <v>45741</v>
+        <v>45994</v>
       </c>
       <c r="O567" s="3" t="n">
-        <v>45741</v>
+        <v>45994</v>
       </c>
       <c r="P567" t="inlineStr"/>
       <c r="Q567" t="inlineStr"/>
@@ -53421,10 +53503,10 @@
       </c>
       <c r="S567" t="inlineStr"/>
       <c r="T567" s="3" t="n">
-        <v>45826</v>
+        <v>45994</v>
       </c>
       <c r="U567" s="3" t="n">
-        <v>45978</v>
+        <v>45994</v>
       </c>
       <c r="V567" t="inlineStr"/>
       <c r="W567" t="inlineStr"/>
@@ -53469,30 +53551,38 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>0120</t>
+          <t>0170</t>
         </is>
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Complementario Para Pruebas/Ensayos</t>
+          <t>Plegado piezas Eslora, barrag, vareng</t>
         </is>
       </c>
       <c r="I568" t="n">
-        <v>0</v>
+        <v>413.07</v>
       </c>
       <c r="J568" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
-      <c r="M568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>2028255578</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>ESTRUCTURAS METALICAS INDUSTRIALES</t>
+        </is>
+      </c>
+      <c r="M568" t="n">
+        <v>30019536</v>
+      </c>
       <c r="N568" s="3" t="n">
-        <v>45978</v>
+        <v>45993</v>
       </c>
       <c r="O568" s="3" t="n">
-        <v>45978</v>
+        <v>45993</v>
       </c>
       <c r="P568" t="inlineStr"/>
       <c r="Q568" t="inlineStr"/>
@@ -53501,23 +53591,19 @@
       </c>
       <c r="S568" t="inlineStr"/>
       <c r="T568" s="3" t="n">
-        <v>45978</v>
+        <v>46003</v>
       </c>
       <c r="U568" s="3" t="n">
-        <v>45978</v>
-      </c>
-      <c r="V568" t="inlineStr"/>
+        <v>46003</v>
+      </c>
+      <c r="V568" s="3" t="n">
+        <v>46003</v>
+      </c>
       <c r="W568" t="inlineStr"/>
       <c r="X568" t="inlineStr"/>
-      <c r="Y568" t="n">
-        <v>2266.712</v>
-      </c>
-      <c r="Z568" t="n">
-        <v>2229.08</v>
-      </c>
-      <c r="AA568" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y568" t="inlineStr"/>
+      <c r="Z568" t="inlineStr"/>
+      <c r="AA568" t="inlineStr"/>
       <c r="AB568" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -53555,30 +53641,38 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>0130</t>
+          <t>0190</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>Arriostres Para Armado</t>
+          <t>3ra Valorización Confección Módulo</t>
         </is>
       </c>
       <c r="I569" t="n">
-        <v>0</v>
+        <v>53395.05</v>
       </c>
       <c r="J569" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
-      <c r="M569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>2060344015</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>PROYECTOS Y REPARACIONES NAVALES JL</t>
+        </is>
+      </c>
+      <c r="M569" t="n">
+        <v>30019536</v>
+      </c>
       <c r="N569" s="3" t="n">
-        <v>45988</v>
+        <v>45741</v>
       </c>
       <c r="O569" s="3" t="n">
-        <v>45988</v>
+        <v>45741</v>
       </c>
       <c r="P569" t="inlineStr"/>
       <c r="Q569" t="inlineStr"/>
@@ -53587,10 +53681,10 @@
       </c>
       <c r="S569" t="inlineStr"/>
       <c r="T569" s="3" t="n">
-        <v>45988</v>
+        <v>46014</v>
       </c>
       <c r="U569" s="3" t="n">
-        <v>45988</v>
+        <v>46014</v>
       </c>
       <c r="V569" t="inlineStr"/>
       <c r="W569" t="inlineStr"/>
@@ -53620,31 +53714,31 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-3</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015566</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>ARBOLADURA</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Trabajos en frío</t>
+          <t>Confección de bípodes</t>
         </is>
       </c>
       <c r="I570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J570" t="inlineStr">
         <is>
@@ -53653,12 +53747,14 @@
       </c>
       <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr"/>
-      <c r="M570" t="inlineStr"/>
+      <c r="M570" t="n">
+        <v>30018341</v>
+      </c>
       <c r="N570" s="3" t="n">
-        <v>45994</v>
+        <v>45741</v>
       </c>
       <c r="O570" s="3" t="n">
-        <v>45994</v>
+        <v>45741</v>
       </c>
       <c r="P570" t="inlineStr"/>
       <c r="Q570" t="inlineStr"/>
@@ -53667,11 +53763,9 @@
       </c>
       <c r="S570" t="inlineStr"/>
       <c r="T570" s="3" t="n">
-        <v>45994</v>
-      </c>
-      <c r="U570" s="3" t="n">
-        <v>45994</v>
-      </c>
+        <v>45828</v>
+      </c>
+      <c r="U570" t="inlineStr"/>
       <c r="V570" t="inlineStr"/>
       <c r="W570" t="inlineStr"/>
       <c r="X570" t="inlineStr"/>
@@ -53700,53 +53794,47 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-2</t>
+          <t>A.S/0037-125-PI-4</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>5015491</t>
+          <t>5015565</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>ESTRUCTURA</t>
+          <t>ALBAÑILERIA</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>0170</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>Plegado piezas Eslora, barrag, vareng</t>
+          <t>Lastrado de bodegas</t>
         </is>
       </c>
       <c r="I571" t="n">
-        <v>413.07</v>
+        <v>1</v>
       </c>
       <c r="J571" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K571" t="n">
-        <v>2028255578</v>
-      </c>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>ESTRUCTURAS METALICAS INDUSTRIALES</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
-        <v>30019536</v>
+        <v>30018340</v>
       </c>
       <c r="N571" s="3" t="n">
-        <v>45993</v>
+        <v>45741</v>
       </c>
       <c r="O571" s="3" t="n">
-        <v>45993</v>
+        <v>45741</v>
       </c>
       <c r="P571" t="inlineStr"/>
       <c r="Q571" t="inlineStr"/>
@@ -53755,14 +53843,10 @@
       </c>
       <c r="S571" t="inlineStr"/>
       <c r="T571" s="3" t="n">
-        <v>46003</v>
-      </c>
-      <c r="U571" s="3" t="n">
-        <v>46003</v>
-      </c>
-      <c r="V571" s="3" t="n">
-        <v>46003</v>
-      </c>
+        <v>45828</v>
+      </c>
+      <c r="U571" t="inlineStr"/>
+      <c r="V571" t="inlineStr"/>
       <c r="W571" t="inlineStr"/>
       <c r="X571" t="inlineStr"/>
       <c r="Y571" t="inlineStr"/>
@@ -53790,17 +53874,17 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-5</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>5015568</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>BULBO PROA</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
@@ -53810,7 +53894,7 @@
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>Confecc bulbo proa</t>
+          <t>SEGURIDAD INDUSTRIAL</t>
         </is>
       </c>
       <c r="I572" t="n">
@@ -53837,26 +53921,20 @@
       </c>
       <c r="S572" t="inlineStr"/>
       <c r="T572" s="3" t="n">
-        <v>45828</v>
+        <v>45881</v>
       </c>
       <c r="U572" s="3" t="n">
-        <v>45993</v>
+        <v>45881</v>
       </c>
       <c r="V572" t="inlineStr"/>
       <c r="W572" t="inlineStr"/>
       <c r="X572" t="inlineStr"/>
-      <c r="Y572" t="n">
-        <v>33583.383</v>
-      </c>
-      <c r="Z572" t="n">
-        <v>30192.82</v>
-      </c>
-      <c r="AA572" t="n">
-        <v>5594.2083</v>
-      </c>
+      <c r="Y572" t="inlineStr"/>
+      <c r="Z572" t="inlineStr"/>
+      <c r="AA572" t="inlineStr"/>
       <c r="AB572" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -53876,17 +53954,17 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-5</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>5015568</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>BULBO PROA</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
@@ -53896,7 +53974,7 @@
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>Complementario para confección</t>
+          <t>LIMPIEZA DE PATIO</t>
         </is>
       </c>
       <c r="I573" t="n">
@@ -53911,10 +53989,10 @@
       <c r="L573" t="inlineStr"/>
       <c r="M573" t="inlineStr"/>
       <c r="N573" s="3" t="n">
-        <v>45993</v>
+        <v>45741</v>
       </c>
       <c r="O573" s="3" t="n">
-        <v>45993</v>
+        <v>45741</v>
       </c>
       <c r="P573" t="inlineStr"/>
       <c r="Q573" t="inlineStr"/>
@@ -53923,26 +54001,20 @@
       </c>
       <c r="S573" t="inlineStr"/>
       <c r="T573" s="3" t="n">
-        <v>45993</v>
+        <v>45881</v>
       </c>
       <c r="U573" s="3" t="n">
-        <v>45993</v>
+        <v>45881</v>
       </c>
       <c r="V573" t="inlineStr"/>
       <c r="W573" t="inlineStr"/>
       <c r="X573" t="inlineStr"/>
-      <c r="Y573" t="n">
-        <v>1374.995</v>
-      </c>
-      <c r="Z573" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA573" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y573" t="inlineStr"/>
+      <c r="Z573" t="inlineStr"/>
+      <c r="AA573" t="inlineStr"/>
       <c r="AB573" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -53962,31 +54034,31 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>Modificación de escotilla</t>
+          <t>DISPOSICION DE RESIDUOS LIQUIDOS</t>
         </is>
       </c>
       <c r="I574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J574" t="inlineStr">
         <is>
@@ -53995,9 +54067,7 @@
       </c>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr"/>
-      <c r="M574" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M574" t="inlineStr"/>
       <c r="N574" s="3" t="n">
         <v>45741</v>
       </c>
@@ -54011,10 +54081,10 @@
       </c>
       <c r="S574" t="inlineStr"/>
       <c r="T574" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U574" s="3" t="n">
-        <v>46009</v>
+        <v>45881</v>
       </c>
       <c r="V574" t="inlineStr"/>
       <c r="W574" t="inlineStr"/>
@@ -54024,7 +54094,7 @@
       <c r="AA574" t="inlineStr"/>
       <c r="AB574" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -54044,31 +54114,31 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Confecc canalones de red</t>
+          <t>DISPOSICION DE RESIDUOS SOLIDOS</t>
         </is>
       </c>
       <c r="I575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J575" t="inlineStr">
         <is>
@@ -54077,9 +54147,7 @@
       </c>
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr"/>
-      <c r="M575" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M575" t="inlineStr"/>
       <c r="N575" s="3" t="n">
         <v>45741</v>
       </c>
@@ -54093,10 +54161,10 @@
       </c>
       <c r="S575" t="inlineStr"/>
       <c r="T575" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U575" s="3" t="n">
-        <v>46009</v>
+        <v>45881</v>
       </c>
       <c r="V575" t="inlineStr"/>
       <c r="W575" t="inlineStr"/>
@@ -54106,7 +54174,7 @@
       <c r="AA575" t="inlineStr"/>
       <c r="AB575" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -54126,31 +54194,31 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Confecc defensa de red</t>
+          <t>SERVICIO DE GRUA</t>
         </is>
       </c>
       <c r="I576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J576" t="inlineStr">
         <is>
@@ -54159,9 +54227,7 @@
       </c>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr"/>
-      <c r="M576" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M576" t="inlineStr"/>
       <c r="N576" s="3" t="n">
         <v>45741</v>
       </c>
@@ -54175,10 +54241,10 @@
       </c>
       <c r="S576" t="inlineStr"/>
       <c r="T576" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U576" s="3" t="n">
-        <v>46009</v>
+        <v>45881</v>
       </c>
       <c r="V576" t="inlineStr"/>
       <c r="W576" t="inlineStr"/>
@@ -54188,7 +54254,7 @@
       <c r="AA576" t="inlineStr"/>
       <c r="AB576" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -54208,41 +54274,47 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0060</t>
         </is>
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Modificación tambucho popa</t>
+          <t>grua libre</t>
         </is>
       </c>
       <c r="I577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J577" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>2053203078</v>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>TRANSGRUAS JHONDAVIS S.A.C.</t>
+        </is>
+      </c>
       <c r="M577" t="n">
-        <v>30018247</v>
+        <v>30018740</v>
       </c>
       <c r="N577" s="3" t="n">
         <v>45741</v>
@@ -54257,10 +54329,10 @@
       </c>
       <c r="S577" t="inlineStr"/>
       <c r="T577" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U577" s="3" t="n">
-        <v>46009</v>
+        <v>45881</v>
       </c>
       <c r="V577" t="inlineStr"/>
       <c r="W577" t="inlineStr"/>
@@ -54270,7 +54342,7 @@
       <c r="AA577" t="inlineStr"/>
       <c r="AB577" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -54290,31 +54362,31 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015927</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0070</t>
         </is>
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Injerto plancha en zn winche y pescante</t>
+          <t>PRUEBA DE ESTABILIDAD</t>
         </is>
       </c>
       <c r="I578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J578" t="inlineStr">
         <is>
@@ -54323,9 +54395,7 @@
       </c>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr"/>
-      <c r="M578" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M578" t="inlineStr"/>
       <c r="N578" s="3" t="n">
         <v>45741</v>
       </c>
@@ -54339,10 +54409,10 @@
       </c>
       <c r="S578" t="inlineStr"/>
       <c r="T578" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U578" s="3" t="n">
-        <v>46009</v>
+        <v>45881</v>
       </c>
       <c r="V578" t="inlineStr"/>
       <c r="W578" t="inlineStr"/>
@@ -54352,7 +54422,7 @@
       <c r="AA578" t="inlineStr"/>
       <c r="AB578" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -54372,31 +54442,31 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015926</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>0060</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Ampliación desaguador ppal</t>
+          <t>VARADA/DESVARADA</t>
         </is>
       </c>
       <c r="I579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J579" t="inlineStr">
         <is>
@@ -54405,9 +54475,7 @@
       </c>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr"/>
-      <c r="M579" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M579" t="inlineStr"/>
       <c r="N579" s="3" t="n">
         <v>45741</v>
       </c>
@@ -54421,10 +54489,10 @@
       </c>
       <c r="S579" t="inlineStr"/>
       <c r="T579" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U579" s="3" t="n">
-        <v>46009</v>
+        <v>45881</v>
       </c>
       <c r="V579" t="inlineStr"/>
       <c r="W579" t="inlineStr"/>
@@ -54434,7 +54502,7 @@
       <c r="AA579" t="inlineStr"/>
       <c r="AB579" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -54454,31 +54522,31 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015926</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Confección de barandas y escaleras</t>
+          <t>ESTADIA DE LA EMBARCACION</t>
         </is>
       </c>
       <c r="I580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J580" t="inlineStr">
         <is>
@@ -54487,9 +54555,7 @@
       </c>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr"/>
-      <c r="M580" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M580" t="inlineStr"/>
       <c r="N580" s="3" t="n">
         <v>45741</v>
       </c>
@@ -54503,26 +54569,20 @@
       </c>
       <c r="S580" t="inlineStr"/>
       <c r="T580" s="3" t="n">
-        <v>45826</v>
+        <v>45881</v>
       </c>
       <c r="U580" s="3" t="n">
-        <v>46009</v>
+        <v>45881</v>
       </c>
       <c r="V580" t="inlineStr"/>
       <c r="W580" t="inlineStr"/>
       <c r="X580" t="inlineStr"/>
-      <c r="Y580" t="n">
-        <v>3823.06</v>
-      </c>
-      <c r="Z580" t="n">
-        <v>953.98</v>
-      </c>
-      <c r="AA580" t="n">
-        <v>125.88056</v>
-      </c>
+      <c r="Y580" t="inlineStr"/>
+      <c r="Z580" t="inlineStr"/>
+      <c r="AA580" t="inlineStr"/>
       <c r="AB580" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -54542,31 +54602,31 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-SI</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015926</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>0080</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Confección de guardacalor</t>
+          <t>CALIBRACION</t>
         </is>
       </c>
       <c r="I581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J581" t="inlineStr">
         <is>
@@ -54575,14 +54635,12 @@
       </c>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr"/>
-      <c r="M581" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M581" t="inlineStr"/>
       <c r="N581" s="3" t="n">
-        <v>45741</v>
+        <v>45894</v>
       </c>
       <c r="O581" s="3" t="n">
-        <v>45741</v>
+        <v>45894</v>
       </c>
       <c r="P581" t="inlineStr"/>
       <c r="Q581" t="inlineStr"/>
@@ -54591,10 +54649,10 @@
       </c>
       <c r="S581" t="inlineStr"/>
       <c r="T581" s="3" t="n">
-        <v>45826</v>
+        <v>45894</v>
       </c>
       <c r="U581" s="3" t="n">
-        <v>46009</v>
+        <v>45894</v>
       </c>
       <c r="V581" t="inlineStr"/>
       <c r="W581" t="inlineStr"/>
@@ -54604,7 +54662,7 @@
       <c r="AA581" t="inlineStr"/>
       <c r="AB581" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -54624,47 +54682,53 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-IN-CE</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5016357</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>GARANTIA</t>
         </is>
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>0090</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Confección de base bba abosrbente</t>
+          <t>Calderería/Soldadura</t>
         </is>
       </c>
       <c r="I582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J582" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>2060002445</v>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>COORPORACION JAEGER S.A.C.</t>
+        </is>
+      </c>
       <c r="M582" t="n">
-        <v>30018247</v>
+        <v>30019274</v>
       </c>
       <c r="N582" s="3" t="n">
-        <v>45741</v>
+        <v>45932</v>
       </c>
       <c r="O582" s="3" t="n">
-        <v>45741</v>
+        <v>45932</v>
       </c>
       <c r="P582" t="inlineStr"/>
       <c r="Q582" t="inlineStr"/>
@@ -54673,20 +54737,26 @@
       </c>
       <c r="S582" t="inlineStr"/>
       <c r="T582" s="3" t="n">
-        <v>45826</v>
+        <v>45932</v>
       </c>
       <c r="U582" s="3" t="n">
-        <v>46009</v>
+        <v>45932</v>
       </c>
       <c r="V582" t="inlineStr"/>
       <c r="W582" t="inlineStr"/>
       <c r="X582" t="inlineStr"/>
-      <c r="Y582" t="inlineStr"/>
-      <c r="Z582" t="inlineStr"/>
-      <c r="AA582" t="inlineStr"/>
+      <c r="Y582" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="Z582" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="AA582" t="n">
+        <v>0</v>
+      </c>
       <c r="AB582" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -54706,31 +54776,31 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-IN-CE</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5016357</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>GARANTIA</t>
         </is>
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>0100</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Confección de disparador de panga</t>
+          <t>Tratamiento Superrficial</t>
         </is>
       </c>
       <c r="I583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J583" t="inlineStr">
         <is>
@@ -54740,13 +54810,13 @@
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
-        <v>30018247</v>
+        <v>30019274</v>
       </c>
       <c r="N583" s="3" t="n">
-        <v>45741</v>
+        <v>45932</v>
       </c>
       <c r="O583" s="3" t="n">
-        <v>45741</v>
+        <v>45932</v>
       </c>
       <c r="P583" t="inlineStr"/>
       <c r="Q583" t="inlineStr"/>
@@ -54755,10 +54825,10 @@
       </c>
       <c r="S583" t="inlineStr"/>
       <c r="T583" s="3" t="n">
-        <v>45826</v>
+        <v>45932</v>
       </c>
       <c r="U583" s="3" t="n">
-        <v>46009</v>
+        <v>45932</v>
       </c>
       <c r="V583" t="inlineStr"/>
       <c r="W583" t="inlineStr"/>
@@ -54768,7 +54838,7 @@
       <c r="AA583" t="inlineStr"/>
       <c r="AB583" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -54788,41 +54858,47 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-225-IN-CA</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5015861</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>PROTECCION CATODICA</t>
         </is>
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>0110</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Confección de base de pescante</t>
+          <t>Resane quemaduras por inst/sold zinc</t>
         </is>
       </c>
       <c r="I584" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="J584" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>2051778677</v>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>MANNA S.A.C.</t>
+        </is>
+      </c>
       <c r="M584" t="n">
-        <v>30018247</v>
+        <v>30018670</v>
       </c>
       <c r="N584" s="3" t="n">
         <v>45741</v>
@@ -54837,10 +54913,10 @@
       </c>
       <c r="S584" t="inlineStr"/>
       <c r="T584" s="3" t="n">
-        <v>45826</v>
+        <v>45874</v>
       </c>
       <c r="U584" s="3" t="n">
-        <v>46009</v>
+        <v>45874</v>
       </c>
       <c r="V584" t="inlineStr"/>
       <c r="W584" t="inlineStr"/>
@@ -54850,7 +54926,7 @@
       <c r="AA584" t="inlineStr"/>
       <c r="AB584" t="inlineStr">
         <is>
-          <t>SAMA I MODULO</t>
+          <t>SAMA I CARENA</t>
         </is>
       </c>
     </row>
@@ -54875,26 +54951,26 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5016413</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>PRUEBAS CNC</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>0120</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Confección mandil de amurada ER-BR</t>
+          <t>Pruebas CNC</t>
         </is>
       </c>
       <c r="I585" t="n">
-        <v>1</v>
+        <v>6000</v>
       </c>
       <c r="J585" t="inlineStr">
         <is>
@@ -54904,13 +54980,13 @@
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr"/>
       <c r="M585" t="n">
-        <v>30018247</v>
+        <v>30019346</v>
       </c>
       <c r="N585" s="3" t="n">
-        <v>45741</v>
+        <v>45943</v>
       </c>
       <c r="O585" s="3" t="n">
-        <v>45741</v>
+        <v>45943</v>
       </c>
       <c r="P585" t="inlineStr"/>
       <c r="Q585" t="inlineStr"/>
@@ -54919,10 +54995,10 @@
       </c>
       <c r="S585" t="inlineStr"/>
       <c r="T585" s="3" t="n">
-        <v>45826</v>
+        <v>45943</v>
       </c>
       <c r="U585" s="3" t="n">
-        <v>46009</v>
+        <v>45943</v>
       </c>
       <c r="V585" t="inlineStr"/>
       <c r="W585" t="inlineStr"/>
@@ -54952,31 +55028,31 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5016607</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>ARENADO</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>0130</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Confección ductos vent en bdgas</t>
+          <t>Arenado Piezas Cuaderna</t>
         </is>
       </c>
       <c r="I586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J586" t="inlineStr">
         <is>
@@ -54985,14 +55061,12 @@
       </c>
       <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr"/>
-      <c r="M586" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M586" t="inlineStr"/>
       <c r="N586" s="3" t="n">
-        <v>45741</v>
+        <v>45988</v>
       </c>
       <c r="O586" s="3" t="n">
-        <v>45741</v>
+        <v>45988</v>
       </c>
       <c r="P586" t="inlineStr"/>
       <c r="Q586" t="inlineStr"/>
@@ -55001,10 +55075,10 @@
       </c>
       <c r="S586" t="inlineStr"/>
       <c r="T586" s="3" t="n">
-        <v>45826</v>
+        <v>45988</v>
       </c>
       <c r="U586" s="3" t="n">
-        <v>46009</v>
+        <v>45988</v>
       </c>
       <c r="V586" t="inlineStr"/>
       <c r="W586" t="inlineStr"/>
@@ -55034,31 +55108,31 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>5015492</t>
+          <t>5016608</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>ADITAMENTOS DE CBT</t>
+          <t>PINTADO</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Confección cáncamos de viento</t>
+          <t>Pintado Piezas Cuaderna</t>
         </is>
       </c>
       <c r="I587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J587" t="inlineStr">
         <is>
@@ -55067,14 +55141,12 @@
       </c>
       <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr"/>
-      <c r="M587" t="n">
-        <v>30018247</v>
-      </c>
+      <c r="M587" t="inlineStr"/>
       <c r="N587" s="3" t="n">
-        <v>45741</v>
+        <v>45988</v>
       </c>
       <c r="O587" s="3" t="n">
-        <v>45741</v>
+        <v>45988</v>
       </c>
       <c r="P587" t="inlineStr"/>
       <c r="Q587" t="inlineStr"/>
@@ -55083,17 +55155,23 @@
       </c>
       <c r="S587" t="inlineStr"/>
       <c r="T587" s="3" t="n">
-        <v>45826</v>
+        <v>45988</v>
       </c>
       <c r="U587" s="3" t="n">
-        <v>46009</v>
+        <v>45988</v>
       </c>
       <c r="V587" t="inlineStr"/>
       <c r="W587" t="inlineStr"/>
       <c r="X587" t="inlineStr"/>
-      <c r="Y587" t="inlineStr"/>
-      <c r="Z587" t="inlineStr"/>
-      <c r="AA587" t="inlineStr"/>
+      <c r="Y587" t="n">
+        <v>844.54</v>
+      </c>
+      <c r="Z587" t="n">
+        <v>766.35</v>
+      </c>
+      <c r="AA587" t="n">
+        <v>0</v>
+      </c>
       <c r="AB587" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -55116,17 +55194,17 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>5015495</t>
+          <t>5015489</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>ADITAMENTOS CASCO</t>
+          <t>INGENIERIA Y DISEÑO</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
@@ -55136,11 +55214,11 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Confecc nombre EP y matrícula</t>
+          <t>Desarrollo de Planos para DICAPI</t>
         </is>
       </c>
       <c r="I588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J588" t="inlineStr">
         <is>
@@ -55149,9 +55227,7 @@
       </c>
       <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr"/>
-      <c r="M588" t="n">
-        <v>30018248</v>
-      </c>
+      <c r="M588" t="inlineStr"/>
       <c r="N588" s="3" t="n">
         <v>45741</v>
       </c>
@@ -55165,21 +55241,17 @@
       </c>
       <c r="S588" t="inlineStr"/>
       <c r="T588" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U588" t="inlineStr"/>
+        <v>45825</v>
+      </c>
+      <c r="U588" s="3" t="n">
+        <v>45911</v>
+      </c>
       <c r="V588" t="inlineStr"/>
       <c r="W588" t="inlineStr"/>
       <c r="X588" t="inlineStr"/>
-      <c r="Y588" t="n">
-        <v>952.6990000000001</v>
-      </c>
-      <c r="Z588" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA588" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y588" t="inlineStr"/>
+      <c r="Z588" t="inlineStr"/>
+      <c r="AA588" t="inlineStr"/>
       <c r="AB588" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -55202,17 +55274,17 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>5015495</t>
+          <t>5015489</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>ADITAMENTOS CASCO</t>
+          <t>INGENIERIA Y DISEÑO</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
@@ -55222,11 +55294,11 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Confecc nombre puerto</t>
+          <t>Pruebas de Estabilidad inicial</t>
         </is>
       </c>
       <c r="I589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J589" t="inlineStr">
         <is>
@@ -55235,9 +55307,7 @@
       </c>
       <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr"/>
-      <c r="M589" t="n">
-        <v>30018248</v>
-      </c>
+      <c r="M589" t="inlineStr"/>
       <c r="N589" s="3" t="n">
         <v>45741</v>
       </c>
@@ -55251,9 +55321,11 @@
       </c>
       <c r="S589" t="inlineStr"/>
       <c r="T589" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U589" t="inlineStr"/>
+        <v>45825</v>
+      </c>
+      <c r="U589" s="3" t="n">
+        <v>45911</v>
+      </c>
       <c r="V589" t="inlineStr"/>
       <c r="W589" t="inlineStr"/>
       <c r="X589" t="inlineStr"/>
@@ -55282,17 +55354,17 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-2</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>5015495</t>
+          <t>5015489</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>ADITAMENTOS CASCO</t>
+          <t>INGENIERIA Y DISEÑO</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
@@ -55302,11 +55374,11 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Confección de calados</t>
+          <t>Pruebas de Estabilidad final</t>
         </is>
       </c>
       <c r="I590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J590" t="inlineStr">
         <is>
@@ -55315,9 +55387,7 @@
       </c>
       <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr"/>
-      <c r="M590" t="n">
-        <v>30018248</v>
-      </c>
+      <c r="M590" t="inlineStr"/>
       <c r="N590" s="3" t="n">
         <v>45741</v>
       </c>
@@ -55331,21 +55401,17 @@
       </c>
       <c r="S590" t="inlineStr"/>
       <c r="T590" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U590" t="inlineStr"/>
+        <v>45825</v>
+      </c>
+      <c r="U590" s="3" t="n">
+        <v>45911</v>
+      </c>
       <c r="V590" t="inlineStr"/>
       <c r="W590" t="inlineStr"/>
       <c r="X590" t="inlineStr"/>
-      <c r="Y590" t="n">
-        <v>772.438</v>
-      </c>
-      <c r="Z590" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA590" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y590" t="inlineStr"/>
+      <c r="Z590" t="inlineStr"/>
+      <c r="AA590" t="inlineStr"/>
       <c r="AB590" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -55368,31 +55434,31 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-5</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>5015495</t>
+          <t>5015567</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>ADITAMENTOS CASCO</t>
+          <t>CASTILLO PROA</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Confección de barras defensa</t>
+          <t>Confecc castillo proa</t>
         </is>
       </c>
       <c r="I591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J591" t="inlineStr">
         <is>
@@ -55401,9 +55467,7 @@
       </c>
       <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr"/>
-      <c r="M591" t="n">
-        <v>30018248</v>
-      </c>
+      <c r="M591" t="inlineStr"/>
       <c r="N591" s="3" t="n">
         <v>45741</v>
       </c>
@@ -55417,15 +55481,23 @@
       </c>
       <c r="S591" t="inlineStr"/>
       <c r="T591" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U591" t="inlineStr"/>
+        <v>45828</v>
+      </c>
+      <c r="U591" s="3" t="n">
+        <v>45981</v>
+      </c>
       <c r="V591" t="inlineStr"/>
       <c r="W591" t="inlineStr"/>
       <c r="X591" t="inlineStr"/>
-      <c r="Y591" t="inlineStr"/>
-      <c r="Z591" t="inlineStr"/>
-      <c r="AA591" t="inlineStr"/>
+      <c r="Y591" t="n">
+        <v>56862.74</v>
+      </c>
+      <c r="Z591" t="n">
+        <v>57105.93</v>
+      </c>
+      <c r="AA591" t="n">
+        <v>15319.72</v>
+      </c>
       <c r="AB591" t="inlineStr">
         <is>
           <t>SAMA I MODULO</t>
@@ -55448,27 +55520,27 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>A.S/0037-125-PI-3</t>
+          <t>A.S/0037-125-PI-5</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>5015495</t>
+          <t>5015567</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>ADITAMENTOS CASCO</t>
+          <t>CASTILLO PROA</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Confección de placas de zinc</t>
+          <t>Complementario para confección</t>
         </is>
       </c>
       <c r="I592" t="n">
@@ -55481,14 +55553,12 @@
       </c>
       <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr"/>
-      <c r="M592" t="n">
-        <v>30018248</v>
-      </c>
+      <c r="M592" t="inlineStr"/>
       <c r="N592" s="3" t="n">
-        <v>45741</v>
+        <v>45993</v>
       </c>
       <c r="O592" s="3" t="n">
-        <v>45741</v>
+        <v>45993</v>
       </c>
       <c r="P592" t="inlineStr"/>
       <c r="Q592" t="inlineStr"/>
@@ -55497,9 +55567,11 @@
       </c>
       <c r="S592" t="inlineStr"/>
       <c r="T592" s="3" t="n">
-        <v>45826</v>
-      </c>
-      <c r="U592" t="inlineStr"/>
+        <v>45993</v>
+      </c>
+      <c r="U592" s="3" t="n">
+        <v>45993</v>
+      </c>
       <c r="V592" t="inlineStr"/>
       <c r="W592" t="inlineStr"/>
       <c r="X592" t="inlineStr"/>
@@ -55512,6 +55584,504 @@
         </is>
       </c>
     </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>0</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>EP SAMA I</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>A.S/0037</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>A.S/0037-125-PI-2</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>5015490</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>ARRIOSTRAMIENTO Y POSICION DE SISEÑO</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>Arriostramient de barco por Modificación</t>
+        </is>
+      </c>
+      <c r="I593" t="n">
+        <v>0</v>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="inlineStr"/>
+      <c r="M593" t="inlineStr"/>
+      <c r="N593" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="O593" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="P593" t="inlineStr"/>
+      <c r="Q593" t="inlineStr"/>
+      <c r="R593" t="n">
+        <v>0</v>
+      </c>
+      <c r="S593" t="inlineStr"/>
+      <c r="T593" s="3" t="n">
+        <v>45825</v>
+      </c>
+      <c r="U593" s="3" t="n">
+        <v>45989</v>
+      </c>
+      <c r="V593" t="inlineStr"/>
+      <c r="W593" t="inlineStr"/>
+      <c r="X593" t="inlineStr"/>
+      <c r="Y593" t="n">
+        <v>9867.24</v>
+      </c>
+      <c r="Z593" t="n">
+        <v>9602.68</v>
+      </c>
+      <c r="AA593" t="n">
+        <v>2034.04176</v>
+      </c>
+      <c r="AB593" t="inlineStr">
+        <is>
+          <t>SAMA I MODULO</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>0</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>EP SAMA I</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>A.S/0037</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>A.S/0037-125-PI-3</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>5015495</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>ADITAMENTOS CASCO</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>Confecc nombre EP y matrícula</t>
+        </is>
+      </c>
+      <c r="I594" t="n">
+        <v>1</v>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="inlineStr"/>
+      <c r="M594" t="n">
+        <v>30018248</v>
+      </c>
+      <c r="N594" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="O594" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="P594" t="inlineStr"/>
+      <c r="Q594" t="inlineStr"/>
+      <c r="R594" t="n">
+        <v>0</v>
+      </c>
+      <c r="S594" t="inlineStr"/>
+      <c r="T594" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="U594" t="inlineStr"/>
+      <c r="V594" t="inlineStr"/>
+      <c r="W594" t="inlineStr"/>
+      <c r="X594" t="inlineStr"/>
+      <c r="Y594" t="n">
+        <v>952.6990000000001</v>
+      </c>
+      <c r="Z594" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA594" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB594" t="inlineStr">
+        <is>
+          <t>SAMA I MODULO</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>0</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>EP SAMA I</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>A.S/0037</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>A.S/0037-125-PI-3</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>5015495</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>ADITAMENTOS CASCO</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>Confecc nombre puerto</t>
+        </is>
+      </c>
+      <c r="I595" t="n">
+        <v>1</v>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="inlineStr"/>
+      <c r="M595" t="n">
+        <v>30018248</v>
+      </c>
+      <c r="N595" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="O595" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="P595" t="inlineStr"/>
+      <c r="Q595" t="inlineStr"/>
+      <c r="R595" t="n">
+        <v>0</v>
+      </c>
+      <c r="S595" t="inlineStr"/>
+      <c r="T595" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="U595" t="inlineStr"/>
+      <c r="V595" t="inlineStr"/>
+      <c r="W595" t="inlineStr"/>
+      <c r="X595" t="inlineStr"/>
+      <c r="Y595" t="inlineStr"/>
+      <c r="Z595" t="inlineStr"/>
+      <c r="AA595" t="inlineStr"/>
+      <c r="AB595" t="inlineStr">
+        <is>
+          <t>SAMA I MODULO</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>0</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>EP SAMA I</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>A.S/0037</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>A.S/0037-125-PI-3</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>5015495</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>ADITAMENTOS CASCO</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>0030</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>Confección de calados</t>
+        </is>
+      </c>
+      <c r="I596" t="n">
+        <v>1</v>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="inlineStr"/>
+      <c r="M596" t="n">
+        <v>30018248</v>
+      </c>
+      <c r="N596" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="O596" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="P596" t="inlineStr"/>
+      <c r="Q596" t="inlineStr"/>
+      <c r="R596" t="n">
+        <v>0</v>
+      </c>
+      <c r="S596" t="inlineStr"/>
+      <c r="T596" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="U596" t="inlineStr"/>
+      <c r="V596" t="inlineStr"/>
+      <c r="W596" t="inlineStr"/>
+      <c r="X596" t="inlineStr"/>
+      <c r="Y596" t="n">
+        <v>772.4380000000001</v>
+      </c>
+      <c r="Z596" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA596" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB596" t="inlineStr">
+        <is>
+          <t>SAMA I MODULO</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>0</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>EP SAMA I</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>A.S/0037</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>A.S/0037-125-PI-3</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>5015495</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>ADITAMENTOS CASCO</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>0040</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>Confección de barras defensa</t>
+        </is>
+      </c>
+      <c r="I597" t="n">
+        <v>1</v>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="inlineStr"/>
+      <c r="M597" t="n">
+        <v>30018248</v>
+      </c>
+      <c r="N597" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="O597" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="P597" t="inlineStr"/>
+      <c r="Q597" t="inlineStr"/>
+      <c r="R597" t="n">
+        <v>0</v>
+      </c>
+      <c r="S597" t="inlineStr"/>
+      <c r="T597" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="U597" t="inlineStr"/>
+      <c r="V597" t="inlineStr"/>
+      <c r="W597" t="inlineStr"/>
+      <c r="X597" t="inlineStr"/>
+      <c r="Y597" t="inlineStr"/>
+      <c r="Z597" t="inlineStr"/>
+      <c r="AA597" t="inlineStr"/>
+      <c r="AB597" t="inlineStr">
+        <is>
+          <t>SAMA I MODULO</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>0</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>EP SAMA I</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>A.S/0037</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>A.S/0037-125-PI-3</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>5015495</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>ADITAMENTOS CASCO</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>0050</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>Confección de placas de zinc</t>
+        </is>
+      </c>
+      <c r="I598" t="n">
+        <v>0</v>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="inlineStr"/>
+      <c r="M598" t="n">
+        <v>30018248</v>
+      </c>
+      <c r="N598" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="O598" s="3" t="n">
+        <v>45741</v>
+      </c>
+      <c r="P598" t="inlineStr"/>
+      <c r="Q598" t="inlineStr"/>
+      <c r="R598" t="n">
+        <v>0</v>
+      </c>
+      <c r="S598" t="inlineStr"/>
+      <c r="T598" s="3" t="n">
+        <v>45826</v>
+      </c>
+      <c r="U598" t="inlineStr"/>
+      <c r="V598" t="inlineStr"/>
+      <c r="W598" t="inlineStr"/>
+      <c r="X598" t="inlineStr"/>
+      <c r="Y598" t="inlineStr"/>
+      <c r="Z598" t="inlineStr"/>
+      <c r="AA598" t="inlineStr"/>
+      <c r="AB598" t="inlineStr">
+        <is>
+          <t>SAMA I MODULO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
